--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>928080.5624946563</v>
+        <v>926379.5192398386</v>
       </c>
     </row>
     <row r="7">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>89.51051864809693</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>69.67951694260721</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>126.358590200387</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>18.29749587628863</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>18.29749587628852</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>140.0306324445843</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>71.44610599702098</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>343.8611128075989</v>
       </c>
       <c r="D11" t="n">
-        <v>333.2712626572743</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>133.8342997713454</v>
+        <v>360.5185911088531</v>
       </c>
       <c r="F11" t="n">
-        <v>385.4642667783028</v>
+        <v>138.9984647342519</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>391.5290833720856</v>
       </c>
       <c r="H11" t="n">
         <v>293.8744689688615</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.00791774389293</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.7870599667706</v>
+        <v>133.7870599667705</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>191.3449620018448</v>
       </c>
       <c r="U11" t="n">
-        <v>229.7449239300566</v>
+        <v>229.7449239300565</v>
       </c>
       <c r="V11" t="n">
         <v>306.3404795067262</v>
       </c>
       <c r="W11" t="n">
-        <v>327.8291897540043</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>348.3193217150604</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>158.4202012185286</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.2036940548037</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.0221836831605</v>
       </c>
       <c r="F13" t="n">
-        <v>35.94558096235822</v>
+        <v>65.38632642610803</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.5197444999202</v>
       </c>
       <c r="H13" t="n">
-        <v>131.3958674946034</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.1779677721254</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>202.0070443674997</v>
+        <v>202.0070443674996</v>
       </c>
       <c r="U13" t="n">
-        <v>264.8494618897115</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.7258643604193</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.1112193731823</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.2978764256285</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>361.3220627000719</v>
+        <v>361.3220627000721</v>
       </c>
       <c r="C14" t="n">
-        <v>343.8611128075989</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>333.2712626572743</v>
+        <v>333.2712626572745</v>
       </c>
       <c r="E14" t="n">
-        <v>360.5185911088531</v>
+        <v>360.5185911088533</v>
       </c>
       <c r="F14" t="n">
-        <v>385.4642667783028</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>391.5290833720856</v>
+        <v>391.5290833720857</v>
       </c>
       <c r="H14" t="n">
-        <v>293.8744689688615</v>
+        <v>293.8744689688617</v>
       </c>
       <c r="I14" t="n">
-        <v>98.00791774389296</v>
+        <v>98.00791774389309</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.7870599667706</v>
+        <v>133.7870599667707</v>
       </c>
       <c r="T14" t="n">
-        <v>191.3449620018448</v>
+        <v>13.10408713241549</v>
       </c>
       <c r="U14" t="n">
-        <v>229.7449239300566</v>
+        <v>229.7449239300567</v>
       </c>
       <c r="V14" t="n">
-        <v>91.42957449804582</v>
+        <v>306.3404795067264</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>327.8291897540045</v>
       </c>
       <c r="X14" t="n">
-        <v>348.3193217150604</v>
+        <v>348.3193217150605</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>364.8261596926451</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>145.8350421352192</v>
+        <v>145.8350421352193</v>
       </c>
       <c r="D16" t="n">
-        <v>127.2036940548037</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>125.0221836831605</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.3958674946034</v>
+        <v>131.3958674946035</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.2446228018299</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.1413922466184</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.0070443674998</v>
       </c>
       <c r="U16" t="n">
-        <v>264.8494618897115</v>
+        <v>264.8494618897117</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>265.1112193731823</v>
+        <v>93.56160751229083</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.61756981709397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.8176457363833</v>
+        <v>300.8176457363832</v>
       </c>
       <c r="C17" t="n">
-        <v>283.3566958439103</v>
+        <v>283.3566958439102</v>
       </c>
       <c r="D17" t="n">
-        <v>272.7668456935857</v>
+        <v>272.7668456935856</v>
       </c>
       <c r="E17" t="n">
-        <v>300.0141741451645</v>
+        <v>300.0141741451644</v>
       </c>
       <c r="F17" t="n">
-        <v>324.9598498146142</v>
+        <v>324.9598498146141</v>
       </c>
       <c r="G17" t="n">
-        <v>331.024666408397</v>
+        <v>331.0246664083969</v>
       </c>
       <c r="H17" t="n">
         <v>233.3700520051729</v>
       </c>
       <c r="I17" t="n">
-        <v>37.50350078020438</v>
+        <v>37.50350078020426</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.28264300308197</v>
+        <v>73.28264300308184</v>
       </c>
       <c r="T17" t="n">
-        <v>130.8405450381563</v>
+        <v>130.8405450381561</v>
       </c>
       <c r="U17" t="n">
-        <v>169.240506966368</v>
+        <v>169.2405069663678</v>
       </c>
       <c r="V17" t="n">
-        <v>245.8360625430377</v>
+        <v>245.8360625430375</v>
       </c>
       <c r="W17" t="n">
-        <v>267.3247727903158</v>
+        <v>267.3247727903156</v>
       </c>
       <c r="X17" t="n">
-        <v>287.8149047513718</v>
+        <v>287.8149047513717</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.3217427289563</v>
+        <v>304.3217427289562</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.69667491259347</v>
+        <v>21.69667491259348</v>
       </c>
       <c r="S18" t="n">
         <v>148.2102261065498</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.91578425484006</v>
+        <v>97.91578425483992</v>
       </c>
       <c r="C19" t="n">
-        <v>85.3306251715306</v>
+        <v>85.33062517153046</v>
       </c>
       <c r="D19" t="n">
-        <v>66.69927709111512</v>
+        <v>66.69927709111498</v>
       </c>
       <c r="E19" t="n">
-        <v>64.51776671947194</v>
+        <v>64.51776671947179</v>
       </c>
       <c r="F19" t="n">
-        <v>38.51092508911214</v>
+        <v>63.50485209583387</v>
       </c>
       <c r="G19" t="n">
-        <v>85.01532753623164</v>
+        <v>85.01532753623151</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>70.89145053091467</v>
       </c>
       <c r="I19" t="n">
-        <v>41.67355080843683</v>
+        <v>41.67355080843669</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.74020583814107</v>
       </c>
       <c r="S19" t="n">
-        <v>123.6369752829296</v>
+        <v>123.6369752829295</v>
       </c>
       <c r="T19" t="n">
-        <v>141.5026274038111</v>
+        <v>141.5026274038109</v>
       </c>
       <c r="U19" t="n">
-        <v>204.3450449260229</v>
+        <v>60.71946155024893</v>
       </c>
       <c r="V19" t="n">
-        <v>170.2214473967308</v>
+        <v>170.2214473967306</v>
       </c>
       <c r="W19" t="n">
-        <v>204.6068024094938</v>
+        <v>204.6068024094936</v>
       </c>
       <c r="X19" t="n">
-        <v>143.7934594619399</v>
+        <v>143.7934594619398</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.6684574249975</v>
+        <v>136.6684574249974</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>233.3700520051729</v>
       </c>
       <c r="I20" t="n">
-        <v>37.50350078020431</v>
+        <v>37.50350078020432</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.69667491259347</v>
+        <v>21.69667491259348</v>
       </c>
       <c r="S21" t="n">
         <v>148.2102261065498</v>
@@ -2239,10 +2239,10 @@
         <v>97.91578425483999</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>85.33062517153053</v>
       </c>
       <c r="D22" t="n">
-        <v>66.69927709111505</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>64.51776671947187</v>
@@ -2251,13 +2251,13 @@
         <v>63.50485209583394</v>
       </c>
       <c r="G22" t="n">
-        <v>26.72036933198548</v>
+        <v>85.01532753623158</v>
       </c>
       <c r="H22" t="n">
-        <v>70.89145053091474</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.67355080843676</v>
+        <v>41.67355080843677</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.74020583814114</v>
+        <v>47.74020583814115</v>
       </c>
       <c r="S22" t="n">
         <v>123.6369752829296</v>
@@ -2299,7 +2299,7 @@
         <v>170.2214473967307</v>
       </c>
       <c r="W22" t="n">
-        <v>204.6068024094937</v>
+        <v>198.5719466557474</v>
       </c>
       <c r="X22" t="n">
         <v>143.7934594619398</v>
@@ -2336,7 +2336,7 @@
         <v>233.3700520051729</v>
       </c>
       <c r="I23" t="n">
-        <v>37.50350078020431</v>
+        <v>37.50350078020432</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.69667491259347</v>
+        <v>21.69667491259348</v>
       </c>
       <c r="S24" t="n">
         <v>148.2102261065498</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.79505297489865</v>
+        <v>85.50724468965018</v>
       </c>
       <c r="C25" t="n">
         <v>85.33062517153053</v>
       </c>
       <c r="D25" t="n">
-        <v>66.69927709111505</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.51776671947187</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.50485209583394</v>
       </c>
       <c r="G25" t="n">
-        <v>85.01532753623158</v>
+        <v>85.01532753623157</v>
       </c>
       <c r="H25" t="n">
         <v>70.89145053091474</v>
       </c>
       <c r="I25" t="n">
-        <v>41.67355080843676</v>
+        <v>41.67355080843677</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>233.3700520051729</v>
       </c>
       <c r="I26" t="n">
-        <v>37.50350078020431</v>
+        <v>37.50350078020432</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.28264300308192</v>
+        <v>73.28264300308193</v>
       </c>
       <c r="T26" t="n">
         <v>130.8405450381562</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.69667491259347</v>
+        <v>21.69667491259348</v>
       </c>
       <c r="S27" t="n">
         <v>148.2102261065498</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.91578425483999</v>
+        <v>97.91578425484001</v>
       </c>
       <c r="C28" t="n">
-        <v>78.37349922075182</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.69927709111505</v>
+        <v>66.69927709111506</v>
       </c>
       <c r="E28" t="n">
-        <v>64.51776671947187</v>
+        <v>64.51776671947188</v>
       </c>
       <c r="F28" t="n">
-        <v>63.50485209583394</v>
+        <v>63.50485209583395</v>
       </c>
       <c r="G28" t="n">
-        <v>85.01532753623157</v>
+        <v>85.01532753623158</v>
       </c>
       <c r="H28" t="n">
-        <v>70.89145053091474</v>
+        <v>60.33669816480992</v>
       </c>
       <c r="I28" t="n">
-        <v>41.67355080843676</v>
+        <v>41.67355080843678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.74020583814114</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>123.6369752829296</v>
@@ -2779,7 +2779,7 @@
         <v>143.7934594619398</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.6684574249975</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>300.8176457363833</v>
       </c>
       <c r="C29" t="n">
-        <v>283.3566958439103</v>
+        <v>283.3566958439102</v>
       </c>
       <c r="D29" t="n">
         <v>272.7668456935857</v>
@@ -2801,16 +2801,16 @@
         <v>300.0141741451645</v>
       </c>
       <c r="F29" t="n">
-        <v>324.9598498146142</v>
+        <v>324.9598498146141</v>
       </c>
       <c r="G29" t="n">
-        <v>331.024666408397</v>
+        <v>331.0246664083969</v>
       </c>
       <c r="H29" t="n">
         <v>233.3700520051729</v>
       </c>
       <c r="I29" t="n">
-        <v>37.50350078020436</v>
+        <v>37.50350078020428</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.28264300308197</v>
+        <v>73.28264300308189</v>
       </c>
       <c r="T29" t="n">
-        <v>130.8405450381563</v>
+        <v>130.8405450381562</v>
       </c>
       <c r="U29" t="n">
-        <v>169.240506966368</v>
+        <v>169.2405069663679</v>
       </c>
       <c r="V29" t="n">
-        <v>245.8360625430377</v>
+        <v>245.8360625430376</v>
       </c>
       <c r="W29" t="n">
-        <v>267.3247727903158</v>
+        <v>267.3247727903157</v>
       </c>
       <c r="X29" t="n">
-        <v>287.8149047513718</v>
+        <v>287.8149047513717</v>
       </c>
       <c r="Y29" t="n">
-        <v>304.3217427289563</v>
+        <v>304.3217427289562</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.91578425484006</v>
+        <v>97.91578425483996</v>
       </c>
       <c r="C31" t="n">
-        <v>85.3306251715306</v>
+        <v>85.3306251715305</v>
       </c>
       <c r="D31" t="n">
-        <v>66.69927709111512</v>
+        <v>66.69927709111502</v>
       </c>
       <c r="E31" t="n">
-        <v>64.51776671947194</v>
+        <v>64.51776671947184</v>
       </c>
       <c r="F31" t="n">
-        <v>63.50485209583401</v>
+        <v>63.50485209583391</v>
       </c>
       <c r="G31" t="n">
-        <v>85.01532753623165</v>
+        <v>85.01532753623155</v>
       </c>
       <c r="H31" t="n">
-        <v>70.8914505309148</v>
+        <v>70.89145053091471</v>
       </c>
       <c r="I31" t="n">
-        <v>21.68494271558811</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.74020583814121</v>
+        <v>47.74020583814112</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.6369752829295</v>
       </c>
       <c r="T31" t="n">
-        <v>141.5026274038111</v>
+        <v>141.502627403811</v>
       </c>
       <c r="U31" t="n">
-        <v>204.3450449260229</v>
+        <v>204.3450449260228</v>
       </c>
       <c r="V31" t="n">
-        <v>170.2214473967308</v>
+        <v>170.2214473967307</v>
       </c>
       <c r="W31" t="n">
-        <v>204.6068024094938</v>
+        <v>204.6068024094937</v>
       </c>
       <c r="X31" t="n">
-        <v>143.7934594619399</v>
+        <v>41.84142689460091</v>
       </c>
       <c r="Y31" t="n">
         <v>136.6684574249975</v>
@@ -3038,16 +3038,16 @@
         <v>300.0141741451645</v>
       </c>
       <c r="F32" t="n">
-        <v>324.9598498146142</v>
+        <v>324.9598498146141</v>
       </c>
       <c r="G32" t="n">
-        <v>331.024666408397</v>
+        <v>331.0246664083969</v>
       </c>
       <c r="H32" t="n">
         <v>233.3700520051729</v>
       </c>
       <c r="I32" t="n">
-        <v>37.50350078020436</v>
+        <v>37.50350078020433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>73.28264300308197</v>
+        <v>73.28264300308194</v>
       </c>
       <c r="T32" t="n">
-        <v>130.8405450381563</v>
+        <v>130.8405450381562</v>
       </c>
       <c r="U32" t="n">
-        <v>169.240506966368</v>
+        <v>169.2405069663679</v>
       </c>
       <c r="V32" t="n">
-        <v>245.8360625430377</v>
+        <v>245.8360625430376</v>
       </c>
       <c r="W32" t="n">
-        <v>267.3247727903158</v>
+        <v>267.3247727903157</v>
       </c>
       <c r="X32" t="n">
-        <v>287.8149047513718</v>
+        <v>287.8149047513717</v>
       </c>
       <c r="Y32" t="n">
         <v>304.3217427289563</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.98947797017624</v>
+        <v>97.91578425484002</v>
       </c>
       <c r="C34" t="n">
-        <v>85.3306251715306</v>
+        <v>85.33062517153056</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>66.69927709111508</v>
       </c>
       <c r="E34" t="n">
-        <v>64.51776671947194</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>63.50485209583401</v>
+        <v>63.50485209583397</v>
       </c>
       <c r="G34" t="n">
-        <v>85.01532753623164</v>
+        <v>85.0153275362316</v>
       </c>
       <c r="H34" t="n">
-        <v>70.8914505309148</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.67355080843683</v>
+        <v>41.67355080843679</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.74020583814121</v>
+        <v>39.52383971275073</v>
       </c>
       <c r="S34" t="n">
         <v>123.6369752829296</v>
@@ -3244,10 +3244,10 @@
         <v>204.3450449260229</v>
       </c>
       <c r="V34" t="n">
-        <v>170.2214473967308</v>
+        <v>170.2214473967307</v>
       </c>
       <c r="W34" t="n">
-        <v>204.6068024094938</v>
+        <v>204.6068024094937</v>
       </c>
       <c r="X34" t="n">
         <v>143.7934594619399</v>
@@ -3281,7 +3281,7 @@
         <v>325.0003055070943</v>
       </c>
       <c r="H35" t="n">
-        <v>227.3456911038702</v>
+        <v>227.3456911038703</v>
       </c>
       <c r="I35" t="n">
         <v>31.47913987890166</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25828210177926</v>
+        <v>67.25828210177927</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8161841368535</v>
+        <v>124.8161841368536</v>
       </c>
       <c r="U35" t="n">
         <v>163.2161460650653</v>
@@ -3436,10 +3436,10 @@
         <v>57.4804911945313</v>
       </c>
       <c r="G37" t="n">
-        <v>78.99096663492892</v>
+        <v>78.99096663492894</v>
       </c>
       <c r="H37" t="n">
-        <v>64.86708962961208</v>
+        <v>64.8670896296121</v>
       </c>
       <c r="I37" t="n">
         <v>35.64918990713412</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71584493683849</v>
+        <v>41.71584493683851</v>
       </c>
       <c r="S37" t="n">
         <v>117.6126143816269</v>
@@ -3503,7 +3503,7 @@
         <v>294.7932848350806</v>
       </c>
       <c r="C38" t="n">
-        <v>277.3323349426076</v>
+        <v>277.3323349426075</v>
       </c>
       <c r="D38" t="n">
         <v>266.742484792283</v>
@@ -3521,7 +3521,7 @@
         <v>227.3456911038702</v>
       </c>
       <c r="I38" t="n">
-        <v>31.47913987890166</v>
+        <v>31.47913987890162</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25828210177926</v>
+        <v>67.25828210177923</v>
       </c>
       <c r="T38" t="n">
         <v>124.8161841368535</v>
       </c>
       <c r="U38" t="n">
-        <v>163.2161460650653</v>
+        <v>163.2161460650652</v>
       </c>
       <c r="V38" t="n">
         <v>239.8117016417349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.89142335353735</v>
+        <v>91.89142335353731</v>
       </c>
       <c r="C40" t="n">
-        <v>79.30626427022789</v>
+        <v>79.30626427022784</v>
       </c>
       <c r="D40" t="n">
-        <v>60.67491618981241</v>
+        <v>60.67491618981236</v>
       </c>
       <c r="E40" t="n">
-        <v>58.49340581816922</v>
+        <v>58.49340581816918</v>
       </c>
       <c r="F40" t="n">
-        <v>57.4804911945313</v>
+        <v>57.48049119453125</v>
       </c>
       <c r="G40" t="n">
-        <v>78.99096663492892</v>
+        <v>78.99096663492888</v>
       </c>
       <c r="H40" t="n">
-        <v>64.86708962961208</v>
+        <v>64.86708962961205</v>
       </c>
       <c r="I40" t="n">
-        <v>35.64918990713412</v>
+        <v>35.64918990713407</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71584493683849</v>
+        <v>41.71584493683845</v>
       </c>
       <c r="S40" t="n">
         <v>117.6126143816269</v>
       </c>
       <c r="T40" t="n">
-        <v>135.4782665025084</v>
+        <v>135.4782665025083</v>
       </c>
       <c r="U40" t="n">
         <v>198.3206840247202</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.7932848350807</v>
+        <v>294.7932848350806</v>
       </c>
       <c r="C41" t="n">
         <v>277.3323349426076</v>
       </c>
       <c r="D41" t="n">
-        <v>266.7424847922831</v>
+        <v>266.742484792283</v>
       </c>
       <c r="E41" t="n">
-        <v>293.9898132438619</v>
+        <v>293.9898132438618</v>
       </c>
       <c r="F41" t="n">
         <v>318.9354889133115</v>
@@ -3755,10 +3755,10 @@
         <v>325.0003055070943</v>
       </c>
       <c r="H41" t="n">
-        <v>227.3456911038703</v>
+        <v>227.3456911038702</v>
       </c>
       <c r="I41" t="n">
-        <v>31.47913987890169</v>
+        <v>31.47913987890166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25828210177929</v>
+        <v>67.25828210177926</v>
       </c>
       <c r="T41" t="n">
-        <v>124.8161841368536</v>
+        <v>124.8161841368535</v>
       </c>
       <c r="U41" t="n">
         <v>163.2161460650653</v>
       </c>
       <c r="V41" t="n">
-        <v>239.811701641735</v>
+        <v>239.8117016417349</v>
       </c>
       <c r="W41" t="n">
-        <v>261.3004118890131</v>
+        <v>261.300411889013</v>
       </c>
       <c r="X41" t="n">
         <v>281.7905438500691</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.2973818276537</v>
+        <v>298.2973818276536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.89142335353738</v>
+        <v>91.89142335353735</v>
       </c>
       <c r="C43" t="n">
-        <v>79.30626427022791</v>
+        <v>79.30626427022789</v>
       </c>
       <c r="D43" t="n">
-        <v>60.67491618981244</v>
+        <v>60.67491618981241</v>
       </c>
       <c r="E43" t="n">
-        <v>58.49340581816925</v>
+        <v>58.49340581816922</v>
       </c>
       <c r="F43" t="n">
-        <v>57.48049119453133</v>
+        <v>57.4804911945313</v>
       </c>
       <c r="G43" t="n">
-        <v>78.99096663492897</v>
+        <v>78.99096663492894</v>
       </c>
       <c r="H43" t="n">
-        <v>64.86708962961212</v>
+        <v>64.86708962961208</v>
       </c>
       <c r="I43" t="n">
-        <v>35.64918990713414</v>
+        <v>35.64918990713412</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71584493683854</v>
+        <v>41.71584493683892</v>
       </c>
       <c r="S43" t="n">
-        <v>117.612614381627</v>
+        <v>117.6126143816269</v>
       </c>
       <c r="T43" t="n">
         <v>135.4782665025084</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3206840247203</v>
+        <v>198.3206840247202</v>
       </c>
       <c r="V43" t="n">
-        <v>164.1970864954281</v>
+        <v>164.197086495428</v>
       </c>
       <c r="W43" t="n">
-        <v>198.5824415081911</v>
+        <v>198.582441508191</v>
       </c>
       <c r="X43" t="n">
         <v>137.7690985606372</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.6440965236949</v>
+        <v>130.6440965236948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.7932848350805</v>
+        <v>294.7932848350806</v>
       </c>
       <c r="C44" t="n">
         <v>277.3323349426075</v>
@@ -3983,19 +3983,19 @@
         <v>266.7424847922829</v>
       </c>
       <c r="E44" t="n">
-        <v>293.9898132438617</v>
+        <v>293.9898132438618</v>
       </c>
       <c r="F44" t="n">
         <v>318.9354889133114</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0003055070941</v>
+        <v>325.0003055070942</v>
       </c>
       <c r="H44" t="n">
-        <v>227.3456911038701</v>
+        <v>227.3456911038702</v>
       </c>
       <c r="I44" t="n">
-        <v>31.47913987890155</v>
+        <v>31.47913987890161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25828210177914</v>
+        <v>67.2582821017792</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8161841368534</v>
+        <v>124.8161841368535</v>
       </c>
       <c r="U44" t="n">
         <v>163.2161460650652</v>
       </c>
       <c r="V44" t="n">
-        <v>239.8117016417348</v>
+        <v>239.8117016417349</v>
       </c>
       <c r="W44" t="n">
-        <v>261.3004118890129</v>
+        <v>261.300411889013</v>
       </c>
       <c r="X44" t="n">
         <v>281.790543850069</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.2973818276535</v>
+        <v>298.2973818276536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.89142335353723</v>
+        <v>91.89142335353729</v>
       </c>
       <c r="C46" t="n">
-        <v>79.30626427022777</v>
+        <v>79.30626427022783</v>
       </c>
       <c r="D46" t="n">
-        <v>60.67491618981229</v>
+        <v>60.67491618981235</v>
       </c>
       <c r="E46" t="n">
-        <v>58.49340581816911</v>
+        <v>58.49340581816917</v>
       </c>
       <c r="F46" t="n">
-        <v>57.48049119453118</v>
+        <v>57.48049119453206</v>
       </c>
       <c r="G46" t="n">
-        <v>78.99096663492882</v>
+        <v>78.99096663492888</v>
       </c>
       <c r="H46" t="n">
-        <v>64.86708962961414</v>
+        <v>64.86708962961202</v>
       </c>
       <c r="I46" t="n">
-        <v>35.649189907134</v>
+        <v>35.64918990713406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71584493683838</v>
+        <v>41.71584493683844</v>
       </c>
       <c r="S46" t="n">
-        <v>117.6126143816268</v>
+        <v>117.6126143816269</v>
       </c>
       <c r="T46" t="n">
         <v>135.4782665025083</v>
       </c>
       <c r="U46" t="n">
-        <v>198.3206840247201</v>
+        <v>198.3206840247202</v>
       </c>
       <c r="V46" t="n">
-        <v>164.1970864954279</v>
+        <v>164.197086495428</v>
       </c>
       <c r="W46" t="n">
-        <v>198.5824415081909</v>
+        <v>198.582441508191</v>
       </c>
       <c r="X46" t="n">
         <v>137.7690985606371</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.6440965236947</v>
+        <v>130.6440965236948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>730.8505943024719</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.8495312167552</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>452.8495312167552</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>452.8495312167552</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>452.8495312167552</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
         <v>362.4348659156472</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>452.8495312167552</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>452.8495312167552</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4513,16 +4513,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D5" t="n">
-        <v>953.9655401424092</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>467.067986854209</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4592,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685.8223048580254</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C6" t="n">
-        <v>511.3692755768984</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D6" t="n">
-        <v>362.4348659156472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>362.4348659156472</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>893.6738050635582</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>685.8223048580254</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.8223048580254</v>
+        <v>836.4222159142857</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
         <v>41.77557929797318</v>
@@ -4753,22 +4753,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.6514970160482</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6514970160482</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
         <v>53.75394372784808</v>
@@ -4835,19 +4835,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V8" t="n">
-        <v>784.1002736601483</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W8" t="n">
-        <v>784.1002736601483</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X8" t="n">
-        <v>784.1002736601483</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>784.1002736601483</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="X9" t="n">
-        <v>648.4405950311615</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="Y9" t="n">
-        <v>648.4405950311615</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.796943855586</v>
+        <v>1716.659800170901</v>
       </c>
       <c r="C11" t="n">
-        <v>1231.462486474173</v>
+        <v>1369.325342789488</v>
       </c>
       <c r="D11" t="n">
-        <v>894.8248474264212</v>
+        <v>1369.325342789488</v>
       </c>
       <c r="E11" t="n">
-        <v>759.6386860412239</v>
+        <v>1005.165149750242</v>
       </c>
       <c r="F11" t="n">
-        <v>370.280840810615</v>
+        <v>864.7626601196841</v>
       </c>
       <c r="G11" t="n">
-        <v>370.280840810615</v>
+        <v>469.2787375216179</v>
       </c>
       <c r="H11" t="n">
-        <v>73.43794286227003</v>
+        <v>172.435839573273</v>
       </c>
       <c r="I11" t="n">
         <v>73.43794286227003</v>
       </c>
       <c r="J11" t="n">
-        <v>260.0647378939667</v>
+        <v>260.064737893967</v>
       </c>
       <c r="K11" t="n">
-        <v>660.5147298883077</v>
+        <v>660.514729888308</v>
       </c>
       <c r="L11" t="n">
         <v>1209.58498271003</v>
@@ -5051,40 +5051,40 @@
         <v>1837.137978958676</v>
       </c>
       <c r="N11" t="n">
-        <v>2460.21344122727</v>
+        <v>2460.213441227271</v>
       </c>
       <c r="O11" t="n">
-        <v>3003.378294076895</v>
+        <v>3003.378294076896</v>
       </c>
       <c r="P11" t="n">
-        <v>3429.282546513513</v>
+        <v>3429.282546513514</v>
       </c>
       <c r="Q11" t="n">
-        <v>3671.897143113501</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="R11" t="n">
-        <v>3671.897143113501</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="S11" t="n">
         <v>3536.758698702622</v>
       </c>
       <c r="T11" t="n">
-        <v>3536.758698702622</v>
+        <v>3343.48095930682</v>
       </c>
       <c r="U11" t="n">
-        <v>3304.693118975291</v>
+        <v>3111.41537957949</v>
       </c>
       <c r="V11" t="n">
-        <v>2995.258291190719</v>
+        <v>2801.980551794918</v>
       </c>
       <c r="W11" t="n">
-        <v>2664.117695479604</v>
+        <v>2801.980551794918</v>
       </c>
       <c r="X11" t="n">
-        <v>2312.279996777523</v>
+        <v>2450.142853092837</v>
       </c>
       <c r="Y11" t="n">
-        <v>1943.768724360709</v>
+        <v>2081.631580676024</v>
       </c>
     </row>
     <row r="12">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.4697089804133</v>
+        <v>644.4580604745104</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4697089804133</v>
+        <v>644.4580604745104</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4697089804133</v>
+        <v>515.9694806211733</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4697089804133</v>
+        <v>389.6844465977788</v>
       </c>
       <c r="F13" t="n">
-        <v>206.1610413416674</v>
+        <v>323.6376522279727</v>
       </c>
       <c r="G13" t="n">
-        <v>206.1610413416674</v>
+        <v>176.6480113189623</v>
       </c>
       <c r="H13" t="n">
-        <v>73.43794286227003</v>
+        <v>176.6480113189623</v>
       </c>
       <c r="I13" t="n">
         <v>73.43794286227003</v>
       </c>
       <c r="J13" t="n">
-        <v>76.36451218836464</v>
+        <v>76.36451218836469</v>
       </c>
       <c r="K13" t="n">
         <v>197.3739935123546</v>
       </c>
       <c r="L13" t="n">
-        <v>401.8228550744295</v>
+        <v>401.8228550744296</v>
       </c>
       <c r="M13" t="n">
-        <v>626.6223364379479</v>
+        <v>626.622336437948</v>
       </c>
       <c r="N13" t="n">
-        <v>852.0152380116511</v>
+        <v>852.0152380116514</v>
       </c>
       <c r="O13" t="n">
-        <v>1045.80395813764</v>
+        <v>1045.803958137641</v>
       </c>
       <c r="P13" t="n">
-        <v>1191.162404042931</v>
+        <v>1191.162404042932</v>
       </c>
       <c r="Q13" t="n">
         <v>1214.887476647901</v>
@@ -5230,19 +5230,19 @@
         <v>1010.83995708477</v>
       </c>
       <c r="U13" t="n">
-        <v>743.3152481052634</v>
+        <v>1010.83995708477</v>
       </c>
       <c r="V13" t="n">
-        <v>510.2588194583752</v>
+        <v>1010.83995708477</v>
       </c>
       <c r="W13" t="n">
-        <v>242.4697089804133</v>
+        <v>1010.83995708477</v>
       </c>
       <c r="X13" t="n">
-        <v>242.4697089804133</v>
+        <v>804.4784657457515</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.4697089804133</v>
+        <v>804.4784657457515</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2302.252794818703</v>
+        <v>1565.560492206683</v>
       </c>
       <c r="C14" t="n">
-        <v>1954.918337437291</v>
+        <v>1565.560492206683</v>
       </c>
       <c r="D14" t="n">
-        <v>1618.280698389539</v>
+        <v>1228.922853158931</v>
       </c>
       <c r="E14" t="n">
-        <v>1254.120505350293</v>
+        <v>864.7626601196848</v>
       </c>
       <c r="F14" t="n">
-        <v>864.7626601196841</v>
+        <v>864.7626601196848</v>
       </c>
       <c r="G14" t="n">
-        <v>469.278737521618</v>
+        <v>469.2787375216186</v>
       </c>
       <c r="H14" t="n">
-        <v>172.4358395732731</v>
+        <v>172.4358395732734</v>
       </c>
       <c r="I14" t="n">
         <v>73.43794286227003</v>
       </c>
       <c r="J14" t="n">
-        <v>260.0647378939666</v>
+        <v>260.0647378939668</v>
       </c>
       <c r="K14" t="n">
-        <v>660.514729888308</v>
+        <v>660.5147298883079</v>
       </c>
       <c r="L14" t="n">
-        <v>1209.584982710031</v>
+        <v>1209.58498271003</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.137978958677</v>
+        <v>1837.137978958676</v>
       </c>
       <c r="N14" t="n">
         <v>2460.213441227271</v>
@@ -5303,25 +5303,25 @@
         <v>3671.897143113502</v>
       </c>
       <c r="S14" t="n">
-        <v>3536.758698702622</v>
+        <v>3536.758698702623</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.480959306819</v>
+        <v>3523.522247053718</v>
       </c>
       <c r="U14" t="n">
-        <v>3111.41537957949</v>
+        <v>3291.456667326388</v>
       </c>
       <c r="V14" t="n">
-        <v>3019.062274025908</v>
+        <v>2982.021839541816</v>
       </c>
       <c r="W14" t="n">
-        <v>3019.062274025908</v>
+        <v>2650.8812438307</v>
       </c>
       <c r="X14" t="n">
-        <v>2667.224575323827</v>
+        <v>2299.043545128619</v>
       </c>
       <c r="Y14" t="n">
-        <v>2667.224575323827</v>
+        <v>1930.532272711806</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.43794286227003</v>
       </c>
       <c r="J15" t="n">
-        <v>190.8982037786058</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="K15" t="n">
-        <v>518.2773415945317</v>
+        <v>334.0943567608781</v>
       </c>
       <c r="L15" t="n">
-        <v>652.7514479193841</v>
+        <v>835.7004049361551</v>
       </c>
       <c r="M15" t="n">
-        <v>1290.081268551423</v>
+        <v>1473.030225568195</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.986326488981</v>
+        <v>1668.386332905634</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.104532186228</v>
+        <v>2214.80290609118</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.370796472726</v>
+        <v>2636.347311331216</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.464298383708</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>608.2427785873072</v>
+        <v>353.469164710576</v>
       </c>
       <c r="C16" t="n">
-        <v>460.9346552183989</v>
+        <v>206.1610413416675</v>
       </c>
       <c r="D16" t="n">
-        <v>332.4460753650618</v>
+        <v>206.1610413416675</v>
       </c>
       <c r="E16" t="n">
-        <v>206.1610413416674</v>
+        <v>206.1610413416675</v>
       </c>
       <c r="F16" t="n">
-        <v>206.1610413416674</v>
+        <v>206.1610413416675</v>
       </c>
       <c r="G16" t="n">
-        <v>206.1610413416674</v>
+        <v>206.1610413416675</v>
       </c>
       <c r="H16" t="n">
         <v>73.43794286227003</v>
@@ -5434,19 +5434,19 @@
         <v>73.43794286227003</v>
       </c>
       <c r="J16" t="n">
-        <v>76.36451218836467</v>
+        <v>76.36451218836464</v>
       </c>
       <c r="K16" t="n">
-        <v>197.3739935123547</v>
+        <v>197.3739935123545</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8228550744296</v>
+        <v>401.8228550744293</v>
       </c>
       <c r="M16" t="n">
-        <v>626.622336437948</v>
+        <v>626.6223364379475</v>
       </c>
       <c r="N16" t="n">
-        <v>852.0152380116513</v>
+        <v>852.0152380116507</v>
       </c>
       <c r="O16" t="n">
         <v>1045.80395813764</v>
@@ -5455,31 +5455,31 @@
         <v>1191.162404042931</v>
       </c>
       <c r="Q16" t="n">
-        <v>1214.887476647901</v>
+        <v>1214.8874766479</v>
       </c>
       <c r="R16" t="n">
-        <v>1214.887476647901</v>
+        <v>1105.549473817768</v>
       </c>
       <c r="S16" t="n">
-        <v>1214.887476647901</v>
+        <v>919.5480675080529</v>
       </c>
       <c r="T16" t="n">
-        <v>1214.887476647901</v>
+        <v>715.5005479449218</v>
       </c>
       <c r="U16" t="n">
-        <v>947.3627676683943</v>
+        <v>447.9758389654153</v>
       </c>
       <c r="V16" t="n">
-        <v>947.3627676683943</v>
+        <v>447.9758389654153</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5736571904324</v>
+        <v>353.469164710576</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5736571904324</v>
+        <v>353.469164710576</v>
       </c>
       <c r="Y16" t="n">
-        <v>608.2427785873072</v>
+        <v>353.469164710576</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1588.224901293724</v>
       </c>
       <c r="D17" t="n">
-        <v>1312.702834936566</v>
+        <v>1312.702834936567</v>
       </c>
       <c r="E17" t="n">
-        <v>1009.658214587915</v>
+        <v>1009.658214587916</v>
       </c>
       <c r="F17" t="n">
-        <v>681.4159420479008</v>
+        <v>681.4159420479015</v>
       </c>
       <c r="G17" t="n">
-        <v>347.0475921404291</v>
+        <v>347.0475921404288</v>
       </c>
       <c r="H17" t="n">
-        <v>111.3202668826785</v>
+        <v>111.3202668826784</v>
       </c>
       <c r="I17" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J17" t="n">
-        <v>260.0647378939668</v>
+        <v>260.064737893967</v>
       </c>
       <c r="K17" t="n">
-        <v>660.5147298883078</v>
+        <v>660.514729888308</v>
       </c>
       <c r="L17" t="n">
         <v>1209.58498271003</v>
@@ -5525,31 +5525,31 @@
         <v>1837.137978958676</v>
       </c>
       <c r="N17" t="n">
-        <v>2460.21344122727</v>
+        <v>2460.213441227271</v>
       </c>
       <c r="O17" t="n">
-        <v>3003.378294076897</v>
+        <v>3003.378294076896</v>
       </c>
       <c r="P17" t="n">
-        <v>3429.282546513515</v>
+        <v>3429.282546513514</v>
       </c>
       <c r="Q17" t="n">
-        <v>3671.897143113503</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="R17" t="n">
-        <v>3671.897143113503</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="S17" t="n">
-        <v>3597.874271393218</v>
+        <v>3597.874271393217</v>
       </c>
       <c r="T17" t="n">
-        <v>3465.71210468801</v>
+        <v>3465.712104688009</v>
       </c>
       <c r="U17" t="n">
         <v>3294.762097651274</v>
       </c>
       <c r="V17" t="n">
-        <v>3046.442842557297</v>
+        <v>3046.442842557296</v>
       </c>
       <c r="W17" t="n">
         <v>2776.417819536776</v>
@@ -5589,28 +5589,28 @@
         <v>119.7886093612698</v>
       </c>
       <c r="I18" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J18" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="K18" t="n">
-        <v>138.996496035743</v>
+        <v>400.8170806781957</v>
       </c>
       <c r="L18" t="n">
-        <v>627.7238900776651</v>
+        <v>902.4231288534727</v>
       </c>
       <c r="M18" t="n">
-        <v>1265.053710709705</v>
+        <v>1078.704936373012</v>
       </c>
       <c r="N18" t="n">
-        <v>1460.409818047144</v>
+        <v>1668.386332905635</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.82639123269</v>
+        <v>2214.802906091181</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.370796472726</v>
+        <v>2636.347311331217</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.464298383708</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>459.0414503530766</v>
+        <v>555.8953670577589</v>
       </c>
       <c r="C19" t="n">
-        <v>372.8488996747628</v>
+        <v>469.7028163794453</v>
       </c>
       <c r="D19" t="n">
-        <v>305.4758925120202</v>
+        <v>402.3298092167029</v>
       </c>
       <c r="E19" t="n">
-        <v>240.3064311792202</v>
+        <v>337.1603478839031</v>
       </c>
       <c r="F19" t="n">
-        <v>201.4065068467837</v>
+        <v>273.0140326355861</v>
       </c>
       <c r="G19" t="n">
-        <v>115.5324386283679</v>
+        <v>187.1399644171704</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5324386283679</v>
+        <v>115.5324386283677</v>
       </c>
       <c r="I19" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2638849824164</v>
+        <v>136.2638849824165</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1727391004581</v>
+        <v>317.1727391004583</v>
       </c>
       <c r="L19" t="n">
-        <v>581.5209734565847</v>
+        <v>581.5209734565851</v>
       </c>
       <c r="M19" t="n">
-        <v>866.2198276141547</v>
+        <v>866.2198276141552</v>
       </c>
       <c r="N19" t="n">
-        <v>1151.51210198191</v>
+        <v>1151.512101981911</v>
       </c>
       <c r="O19" t="n">
         <v>1405.200194901951</v>
       </c>
       <c r="P19" t="n">
-        <v>1610.458013601293</v>
+        <v>1610.458013601294</v>
       </c>
       <c r="Q19" t="n">
-        <v>1694.082459000315</v>
+        <v>1694.082459000316</v>
       </c>
       <c r="R19" t="n">
-        <v>1694.082459000315</v>
+        <v>1645.860028860779</v>
       </c>
       <c r="S19" t="n">
-        <v>1569.196625381194</v>
+        <v>1520.974195241659</v>
       </c>
       <c r="T19" t="n">
-        <v>1426.264678508657</v>
+        <v>1378.042248369122</v>
       </c>
       <c r="U19" t="n">
-        <v>1219.855542219745</v>
+        <v>1316.709458924426</v>
       </c>
       <c r="V19" t="n">
-        <v>1047.914686263452</v>
+        <v>1144.768602968133</v>
       </c>
       <c r="W19" t="n">
-        <v>841.2411484760842</v>
+        <v>938.0950651807655</v>
       </c>
       <c r="X19" t="n">
-        <v>695.9952298276601</v>
+        <v>792.8491465323415</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.9462829337231</v>
+        <v>654.8001996384053</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1874.443785984541</v>
+        <v>1874.443785984542</v>
       </c>
       <c r="C20" t="n">
         <v>1588.224901293723</v>
@@ -5735,46 +5735,46 @@
         <v>1312.702834936566</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.658214587914</v>
+        <v>1009.658214587915</v>
       </c>
       <c r="F20" t="n">
-        <v>681.4159420479002</v>
+        <v>681.4159420479006</v>
       </c>
       <c r="G20" t="n">
-        <v>347.0475921404286</v>
+        <v>347.0475921404289</v>
       </c>
       <c r="H20" t="n">
-        <v>111.3202668826785</v>
+        <v>111.3202668826784</v>
       </c>
       <c r="I20" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J20" t="n">
-        <v>260.0647378939684</v>
+        <v>260.064737893967</v>
       </c>
       <c r="K20" t="n">
-        <v>660.5147298883095</v>
+        <v>660.514729888308</v>
       </c>
       <c r="L20" t="n">
-        <v>1209.584982710031</v>
+        <v>1209.58498271003</v>
       </c>
       <c r="M20" t="n">
-        <v>1837.137978958678</v>
+        <v>1837.137978958676</v>
       </c>
       <c r="N20" t="n">
-        <v>2460.213441227272</v>
+        <v>2460.213441227271</v>
       </c>
       <c r="O20" t="n">
-        <v>3003.378294076897</v>
+        <v>3003.378294076896</v>
       </c>
       <c r="P20" t="n">
-        <v>3429.282546513515</v>
+        <v>3429.282546513514</v>
       </c>
       <c r="Q20" t="n">
-        <v>3671.897143113503</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="R20" t="n">
-        <v>3671.897143113503</v>
+        <v>3671.897143113502</v>
       </c>
       <c r="S20" t="n">
         <v>3597.874271393217</v>
@@ -5792,7 +5792,7 @@
         <v>2776.417819536775</v>
       </c>
       <c r="X20" t="n">
-        <v>2485.695693525288</v>
+        <v>2485.695693525289</v>
       </c>
       <c r="Y20" t="n">
         <v>2178.29999379907</v>
@@ -5826,25 +5826,25 @@
         <v>119.7886093612698</v>
       </c>
       <c r="I21" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J21" t="n">
         <v>190.8982037786058</v>
       </c>
       <c r="K21" t="n">
-        <v>518.2773415945317</v>
+        <v>518.2773415945314</v>
       </c>
       <c r="L21" t="n">
-        <v>1019.883389769809</v>
+        <v>652.7514479193838</v>
       </c>
       <c r="M21" t="n">
-        <v>1265.053710709705</v>
+        <v>1290.081268551423</v>
       </c>
       <c r="N21" t="n">
-        <v>1460.409818047144</v>
+        <v>1959.986326488981</v>
       </c>
       <c r="O21" t="n">
-        <v>2006.82639123269</v>
+        <v>2116.479203590565</v>
       </c>
       <c r="P21" t="n">
         <v>2428.370796472726</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.8190202135406</v>
+        <v>416.9148341062141</v>
       </c>
       <c r="C22" t="n">
-        <v>410.8190202135406</v>
+        <v>330.7222834279005</v>
       </c>
       <c r="D22" t="n">
-        <v>343.4460130507981</v>
+        <v>330.7222834279005</v>
       </c>
       <c r="E22" t="n">
-        <v>278.2765517179982</v>
+        <v>265.5528220951006</v>
       </c>
       <c r="F22" t="n">
-        <v>214.1302364696812</v>
+        <v>201.4065068467835</v>
       </c>
       <c r="G22" t="n">
-        <v>187.1399644171706</v>
+        <v>115.5324386283678</v>
       </c>
       <c r="H22" t="n">
         <v>115.5324386283678</v>
       </c>
       <c r="I22" t="n">
-        <v>73.43794286227006</v>
+        <v>73.43794286227003</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2638849824166</v>
+        <v>136.2638849824164</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1727391004583</v>
+        <v>317.1727391004581</v>
       </c>
       <c r="L22" t="n">
-        <v>581.520973456585</v>
+        <v>581.5209734565847</v>
       </c>
       <c r="M22" t="n">
-        <v>866.2198276141552</v>
+        <v>866.2198276141548</v>
       </c>
       <c r="N22" t="n">
         <v>1151.51210198191</v>
@@ -5938,22 +5938,22 @@
         <v>1520.974195241658</v>
       </c>
       <c r="T22" t="n">
-        <v>1378.042248369122</v>
+        <v>1378.042248369121</v>
       </c>
       <c r="U22" t="n">
         <v>1171.633112080209</v>
       </c>
       <c r="V22" t="n">
-        <v>999.6922561239159</v>
+        <v>999.6922561239156</v>
       </c>
       <c r="W22" t="n">
-        <v>793.0187183365485</v>
+        <v>799.1145322292213</v>
       </c>
       <c r="X22" t="n">
-        <v>647.7727996881245</v>
+        <v>653.8686135807972</v>
       </c>
       <c r="Y22" t="n">
-        <v>509.7238527941871</v>
+        <v>515.8196666868606</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1009.658214587915</v>
       </c>
       <c r="F23" t="n">
-        <v>681.4159420479003</v>
+        <v>681.4159420479007</v>
       </c>
       <c r="G23" t="n">
-        <v>347.0475921404288</v>
+        <v>347.0475921404291</v>
       </c>
       <c r="H23" t="n">
         <v>111.3202668826784</v>
@@ -5987,10 +5987,10 @@
         <v>73.43794286227003</v>
       </c>
       <c r="J23" t="n">
-        <v>260.0647378939666</v>
+        <v>260.0647378939677</v>
       </c>
       <c r="K23" t="n">
-        <v>660.514729888308</v>
+        <v>660.5147298883087</v>
       </c>
       <c r="L23" t="n">
         <v>1209.584982710031</v>
@@ -6057,7 +6057,7 @@
         <v>358.2839870303692</v>
       </c>
       <c r="G24" t="n">
-        <v>220.8296410375447</v>
+        <v>220.8296410375448</v>
       </c>
       <c r="H24" t="n">
         <v>119.7886093612698</v>
@@ -6069,19 +6069,19 @@
         <v>190.8982037786058</v>
       </c>
       <c r="K24" t="n">
-        <v>256.4567569520788</v>
+        <v>518.2773415945314</v>
       </c>
       <c r="L24" t="n">
-        <v>390.9308632769312</v>
+        <v>1019.883389769808</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.260683908971</v>
+        <v>1196.165197289348</v>
       </c>
       <c r="N24" t="n">
-        <v>1698.165741846528</v>
+        <v>1460.409818047144</v>
       </c>
       <c r="O24" t="n">
-        <v>2244.582315032075</v>
+        <v>2006.82639123269</v>
       </c>
       <c r="P24" t="n">
         <v>2428.370796472726</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>491.7490518094422</v>
+        <v>423.352898562217</v>
       </c>
       <c r="C25" t="n">
-        <v>405.5565011311286</v>
+        <v>337.1603478839033</v>
       </c>
       <c r="D25" t="n">
-        <v>338.1834939683861</v>
+        <v>337.1603478839033</v>
       </c>
       <c r="E25" t="n">
-        <v>273.0140326355862</v>
+        <v>337.1603478839033</v>
       </c>
       <c r="F25" t="n">
-        <v>273.0140326355862</v>
+        <v>273.0140326355863</v>
       </c>
       <c r="G25" t="n">
         <v>187.1399644171705</v>
@@ -6148,13 +6148,13 @@
         <v>136.2638849824164</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1727391004582</v>
+        <v>317.1727391004581</v>
       </c>
       <c r="L25" t="n">
-        <v>581.5209734565849</v>
+        <v>581.5209734565847</v>
       </c>
       <c r="M25" t="n">
-        <v>866.219827614155</v>
+        <v>866.2198276141548</v>
       </c>
       <c r="N25" t="n">
         <v>1151.51210198191</v>
@@ -6163,16 +6163,16 @@
         <v>1405.200194901951</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.458013601294</v>
+        <v>1610.458013601293</v>
       </c>
       <c r="Q25" t="n">
         <v>1694.082459000315</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.860028860779</v>
+        <v>1645.860028860778</v>
       </c>
       <c r="S25" t="n">
-        <v>1520.974195241658</v>
+        <v>1520.974195241657</v>
       </c>
       <c r="T25" t="n">
         <v>1378.042248369121</v>
@@ -6181,16 +6181,16 @@
         <v>1171.633112080209</v>
       </c>
       <c r="V25" t="n">
-        <v>999.6922561239157</v>
+        <v>999.6922561239154</v>
       </c>
       <c r="W25" t="n">
-        <v>793.0187183365493</v>
+        <v>793.0187183365479</v>
       </c>
       <c r="X25" t="n">
-        <v>647.7727996881252</v>
+        <v>647.7727996881238</v>
       </c>
       <c r="Y25" t="n">
-        <v>509.7238527941884</v>
+        <v>509.7238527941869</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>681.4159420479004</v>
       </c>
       <c r="G26" t="n">
-        <v>347.0475921404287</v>
+        <v>347.0475921404288</v>
       </c>
       <c r="H26" t="n">
-        <v>111.3202668826783</v>
+        <v>111.3202668826784</v>
       </c>
       <c r="I26" t="n">
         <v>73.43794286227003</v>
       </c>
       <c r="J26" t="n">
-        <v>260.0647378939668</v>
+        <v>260.064737893967</v>
       </c>
       <c r="K26" t="n">
-        <v>660.5147298883079</v>
+        <v>660.514729888308</v>
       </c>
       <c r="L26" t="n">
-        <v>1209.584982710031</v>
+        <v>1209.58498271003</v>
       </c>
       <c r="M26" t="n">
-        <v>1837.137978958677</v>
+        <v>1837.137978958676</v>
       </c>
       <c r="N26" t="n">
         <v>2460.213441227271</v>
@@ -6294,7 +6294,7 @@
         <v>358.2839870303692</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8296410375447</v>
+        <v>220.8296410375448</v>
       </c>
       <c r="H27" t="n">
         <v>119.7886093612698</v>
@@ -6306,13 +6306,13 @@
         <v>190.8982037786058</v>
       </c>
       <c r="K27" t="n">
-        <v>518.2773415945317</v>
+        <v>518.2773415945314</v>
       </c>
       <c r="L27" t="n">
-        <v>1019.883389769809</v>
+        <v>1019.883389769808</v>
       </c>
       <c r="M27" t="n">
-        <v>1196.165197289348</v>
+        <v>1265.053710709705</v>
       </c>
       <c r="N27" t="n">
         <v>1460.409818047144</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>548.8679671074779</v>
+        <v>459.0414503530773</v>
       </c>
       <c r="C28" t="n">
-        <v>469.7028163794457</v>
+        <v>459.0414503530773</v>
       </c>
       <c r="D28" t="n">
-        <v>402.3298092167032</v>
+        <v>391.6684431903348</v>
       </c>
       <c r="E28" t="n">
-        <v>337.1603478839033</v>
+        <v>326.4989818575349</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0140326355862</v>
+        <v>262.3526666092178</v>
       </c>
       <c r="G28" t="n">
-        <v>187.1399644171705</v>
+        <v>176.4785983908021</v>
       </c>
       <c r="H28" t="n">
         <v>115.5324386283678</v>
@@ -6385,10 +6385,10 @@
         <v>136.2638849824164</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1727391004582</v>
+        <v>317.1727391004581</v>
       </c>
       <c r="L28" t="n">
-        <v>581.5209734565849</v>
+        <v>581.5209734565848</v>
       </c>
       <c r="M28" t="n">
         <v>866.2198276141551</v>
@@ -6406,28 +6406,28 @@
         <v>1694.082459000315</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.860028860779</v>
+        <v>1694.082459000315</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.974195241658</v>
+        <v>1569.196625381194</v>
       </c>
       <c r="T28" t="n">
-        <v>1378.042248369121</v>
+        <v>1426.264678508657</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.633112080209</v>
+        <v>1219.855542219746</v>
       </c>
       <c r="V28" t="n">
-        <v>999.6922561239159</v>
+        <v>1047.914686263452</v>
       </c>
       <c r="W28" t="n">
-        <v>793.0187183365485</v>
+        <v>841.2411484760848</v>
       </c>
       <c r="X28" t="n">
-        <v>647.7727996881243</v>
+        <v>695.9952298276608</v>
       </c>
       <c r="Y28" t="n">
-        <v>647.7727996881243</v>
+        <v>557.9462829337238</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>1874.443785984542</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.224901293723</v>
+        <v>1588.224901293724</v>
       </c>
       <c r="D29" t="n">
         <v>1312.702834936566</v>
@@ -6449,22 +6449,22 @@
         <v>1009.658214587915</v>
       </c>
       <c r="F29" t="n">
-        <v>681.4159420479004</v>
+        <v>681.4159420479014</v>
       </c>
       <c r="G29" t="n">
         <v>347.0475921404288</v>
       </c>
       <c r="H29" t="n">
-        <v>111.3202668826785</v>
+        <v>111.3202668826784</v>
       </c>
       <c r="I29" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J29" t="n">
-        <v>260.0647378939666</v>
+        <v>260.0647378939668</v>
       </c>
       <c r="K29" t="n">
-        <v>660.514729888308</v>
+        <v>660.5147298883079</v>
       </c>
       <c r="L29" t="n">
         <v>1209.584982710031</v>
@@ -6503,10 +6503,10 @@
         <v>2776.417819536775</v>
       </c>
       <c r="X29" t="n">
-        <v>2485.695693525288</v>
+        <v>2485.695693525289</v>
       </c>
       <c r="Y29" t="n">
-        <v>2178.29999379907</v>
+        <v>2178.299993799071</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>358.2839870303692</v>
       </c>
       <c r="G30" t="n">
-        <v>220.8296410375447</v>
+        <v>220.8296410375448</v>
       </c>
       <c r="H30" t="n">
         <v>119.7886093612698</v>
       </c>
       <c r="I30" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J30" t="n">
         <v>190.8982037786058</v>
@@ -6549,7 +6549,7 @@
         <v>1019.883389769809</v>
       </c>
       <c r="M30" t="n">
-        <v>1196.165197289348</v>
+        <v>1265.053710709705</v>
       </c>
       <c r="N30" t="n">
         <v>1460.409818047144</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>535.7048538326603</v>
+        <v>513.8008712916615</v>
       </c>
       <c r="C31" t="n">
-        <v>449.5123031543466</v>
+        <v>427.6083206133479</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1392959916041</v>
+        <v>360.2353134506054</v>
       </c>
       <c r="E31" t="n">
-        <v>316.9698346588042</v>
+        <v>295.0658521178055</v>
       </c>
       <c r="F31" t="n">
-        <v>252.8235194104871</v>
+        <v>230.9195368694885</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9494511920713</v>
+        <v>145.0454686510728</v>
       </c>
       <c r="H31" t="n">
-        <v>95.34192540326812</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="I31" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2638849824164</v>
+        <v>136.2638849824165</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1727391004581</v>
+        <v>317.1727391004583</v>
       </c>
       <c r="L31" t="n">
-        <v>581.5209734565846</v>
+        <v>581.520973456585</v>
       </c>
       <c r="M31" t="n">
-        <v>866.2198276141546</v>
+        <v>866.2198276141551</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.512101981909</v>
+        <v>1151.51210198191</v>
       </c>
       <c r="O31" t="n">
-        <v>1405.20019490195</v>
+        <v>1405.200194901951</v>
       </c>
       <c r="P31" t="n">
-        <v>1610.458013601293</v>
+        <v>1610.458013601294</v>
       </c>
       <c r="Q31" t="n">
-        <v>1694.082459000314</v>
+        <v>1694.082459000315</v>
       </c>
       <c r="R31" t="n">
-        <v>1645.860028860777</v>
+        <v>1645.860028860779</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.860028860777</v>
+        <v>1520.974195241658</v>
       </c>
       <c r="T31" t="n">
-        <v>1502.928081988241</v>
+        <v>1378.042248369122</v>
       </c>
       <c r="U31" t="n">
-        <v>1296.518945699329</v>
+        <v>1171.63311208021</v>
       </c>
       <c r="V31" t="n">
-        <v>1124.578089743035</v>
+        <v>999.6922561239161</v>
       </c>
       <c r="W31" t="n">
-        <v>917.904551955668</v>
+        <v>793.0187183365488</v>
       </c>
       <c r="X31" t="n">
-        <v>772.6586333072439</v>
+        <v>750.7546507662448</v>
       </c>
       <c r="Y31" t="n">
-        <v>634.6096864133068</v>
+        <v>612.7057038723078</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>1874.443785984542</v>
       </c>
       <c r="C32" t="n">
-        <v>1588.224901293723</v>
+        <v>1588.224901293724</v>
       </c>
       <c r="D32" t="n">
         <v>1312.702834936566</v>
@@ -6686,22 +6686,22 @@
         <v>1009.658214587915</v>
       </c>
       <c r="F32" t="n">
-        <v>681.4159420479004</v>
+        <v>681.4159420479007</v>
       </c>
       <c r="G32" t="n">
-        <v>347.0475921404288</v>
+        <v>347.0475921404291</v>
       </c>
       <c r="H32" t="n">
         <v>111.3202668826785</v>
       </c>
       <c r="I32" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J32" t="n">
-        <v>260.0647378939666</v>
+        <v>260.0647378939668</v>
       </c>
       <c r="K32" t="n">
-        <v>660.5147298883076</v>
+        <v>660.5147298883078</v>
       </c>
       <c r="L32" t="n">
         <v>1209.58498271003</v>
@@ -6710,13 +6710,13 @@
         <v>1837.137978958676</v>
       </c>
       <c r="N32" t="n">
-        <v>2460.213441227271</v>
+        <v>2460.21344122727</v>
       </c>
       <c r="O32" t="n">
-        <v>3003.378294076896</v>
+        <v>3003.378294076895</v>
       </c>
       <c r="P32" t="n">
-        <v>3429.282546513514</v>
+        <v>3429.282546513513</v>
       </c>
       <c r="Q32" t="n">
         <v>3671.897143113502</v>
@@ -6768,34 +6768,34 @@
         <v>358.2839870303692</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8296410375447</v>
+        <v>220.8296410375448</v>
       </c>
       <c r="H33" t="n">
         <v>119.7886093612698</v>
       </c>
       <c r="I33" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J33" t="n">
-        <v>190.8982037786058</v>
+        <v>109.2649939408248</v>
       </c>
       <c r="K33" t="n">
-        <v>518.2773415945317</v>
+        <v>174.8235471142978</v>
       </c>
       <c r="L33" t="n">
-        <v>1019.883389769809</v>
+        <v>676.4295952895748</v>
       </c>
       <c r="M33" t="n">
-        <v>1196.165197289348</v>
+        <v>1313.759415921614</v>
       </c>
       <c r="N33" t="n">
-        <v>1460.409818047144</v>
+        <v>1983.664473859172</v>
       </c>
       <c r="O33" t="n">
-        <v>2006.82639123269</v>
+        <v>2530.081047044718</v>
       </c>
       <c r="P33" t="n">
-        <v>2428.370796472726</v>
+        <v>2636.347311331216</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.464298383708</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.5223598950182</v>
+        <v>419.1183799361569</v>
       </c>
       <c r="C34" t="n">
-        <v>402.3298092167045</v>
+        <v>332.9258292578432</v>
       </c>
       <c r="D34" t="n">
-        <v>402.3298092167045</v>
+        <v>265.5528220951007</v>
       </c>
       <c r="E34" t="n">
-        <v>337.1603478839045</v>
+        <v>265.5528220951007</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0140326355873</v>
+        <v>201.4065068467836</v>
       </c>
       <c r="G34" t="n">
-        <v>187.1399644171706</v>
+        <v>115.5324386283678</v>
       </c>
       <c r="H34" t="n">
         <v>115.5324386283678</v>
       </c>
       <c r="I34" t="n">
-        <v>73.43794286227003</v>
+        <v>73.43794286227005</v>
       </c>
       <c r="J34" t="n">
         <v>136.2638849824164</v>
       </c>
       <c r="K34" t="n">
-        <v>317.172739100458</v>
+        <v>317.1727391004582</v>
       </c>
       <c r="L34" t="n">
-        <v>581.5209734565847</v>
+        <v>581.5209734565849</v>
       </c>
       <c r="M34" t="n">
-        <v>866.2198276141546</v>
+        <v>866.2198276141548</v>
       </c>
       <c r="N34" t="n">
         <v>1151.51210198191</v>
       </c>
       <c r="O34" t="n">
-        <v>1405.20019490195</v>
+        <v>1405.200194901951</v>
       </c>
       <c r="P34" t="n">
-        <v>1610.458013601293</v>
+        <v>1610.458013601294</v>
       </c>
       <c r="Q34" t="n">
-        <v>1694.082459000314</v>
+        <v>1694.082459000315</v>
       </c>
       <c r="R34" t="n">
-        <v>1645.860028860778</v>
+        <v>1654.159388583395</v>
       </c>
       <c r="S34" t="n">
-        <v>1520.974195241657</v>
+        <v>1529.273554964274</v>
       </c>
       <c r="T34" t="n">
-        <v>1378.042248369121</v>
+        <v>1386.341608091738</v>
       </c>
       <c r="U34" t="n">
-        <v>1171.633112080209</v>
+        <v>1179.932471802826</v>
       </c>
       <c r="V34" t="n">
-        <v>999.6922561239148</v>
+        <v>1007.991615846532</v>
       </c>
       <c r="W34" t="n">
-        <v>793.0187183365472</v>
+        <v>801.3180780591645</v>
       </c>
       <c r="X34" t="n">
-        <v>647.7727996881231</v>
+        <v>656.0721594107404</v>
       </c>
       <c r="Y34" t="n">
-        <v>509.7238527941861</v>
+        <v>518.0232125168034</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1829.984474447408</v>
+        <v>1829.984474447407</v>
       </c>
       <c r="C35" t="n">
         <v>1549.850802788208</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.41394946267</v>
+        <v>1280.413949462669</v>
       </c>
       <c r="E35" t="n">
-        <v>983.4545421456374</v>
+        <v>983.4545421456372</v>
       </c>
       <c r="F35" t="n">
-        <v>661.297482637242</v>
+        <v>661.2974826372417</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0143457613892</v>
+        <v>333.014345761389</v>
       </c>
       <c r="H35" t="n">
         <v>103.3722335352579</v>
@@ -6953,13 +6953,13 @@
         <v>2910.237278286811</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.141530723428</v>
+        <v>3336.141530723429</v>
       </c>
       <c r="Q35" t="n">
-        <v>3578.756127323416</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="R35" t="n">
-        <v>3578.756127323416</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="S35" t="n">
         <v>3510.818468634751</v>
@@ -6968,13 +6968,13 @@
         <v>3384.741514961162</v>
       </c>
       <c r="U35" t="n">
-        <v>3219.876720956046</v>
+        <v>3219.876720956045</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.642678893687</v>
+        <v>2977.642678893686</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.702868904785</v>
+        <v>2713.702868904784</v>
       </c>
       <c r="X35" t="n">
         <v>2429.065955924917</v>
@@ -7017,16 +7017,16 @@
         <v>189.0353834628041</v>
       </c>
       <c r="K36" t="n">
-        <v>516.4145212787299</v>
+        <v>254.5939366362771</v>
       </c>
       <c r="L36" t="n">
-        <v>1018.020569454007</v>
+        <v>389.0680429611295</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.302376973546</v>
+        <v>1026.397863593169</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.546997731342</v>
+        <v>1696.302921530727</v>
       </c>
       <c r="O36" t="n">
         <v>2004.963570916889</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.4360555206258</v>
+        <v>511.4360555206259</v>
       </c>
       <c r="C37" t="n">
-        <v>431.328717873931</v>
+        <v>431.3287178739311</v>
       </c>
       <c r="D37" t="n">
         <v>370.0409237428074</v>
       </c>
       <c r="E37" t="n">
-        <v>310.9566754416263</v>
+        <v>310.9566754416264</v>
       </c>
       <c r="F37" t="n">
         <v>252.8955732249281</v>
@@ -7102,10 +7102,10 @@
         <v>597.5505050176521</v>
       </c>
       <c r="M37" t="n">
-        <v>888.2134764675116</v>
+        <v>888.2134764675118</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.469868127556</v>
+        <v>1179.469868127557</v>
       </c>
       <c r="O37" t="n">
         <v>1439.122078339887</v>
@@ -7132,13 +7132,13 @@
         <v>1075.968439304525</v>
       </c>
       <c r="W37" t="n">
-        <v>875.3801145487766</v>
+        <v>875.3801145487768</v>
       </c>
       <c r="X37" t="n">
-        <v>736.2194089319714</v>
+        <v>736.2194089319715</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.2556750696534</v>
+        <v>604.2556750696535</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1829.984474447408</v>
+        <v>1829.984474447407</v>
       </c>
       <c r="C38" t="n">
-        <v>1549.850802788208</v>
+        <v>1549.850802788207</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.41394946267</v>
+        <v>1280.413949462669</v>
       </c>
       <c r="E38" t="n">
-        <v>983.4545421456374</v>
+        <v>983.4545421456369</v>
       </c>
       <c r="F38" t="n">
-        <v>661.297482637242</v>
+        <v>661.2974826372413</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0143457613892</v>
+        <v>333.0143457613885</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3722335352579</v>
+        <v>103.3722335352578</v>
       </c>
       <c r="I38" t="n">
         <v>71.57512254646834</v>
@@ -7190,31 +7190,31 @@
         <v>2910.237278286811</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.141530723428</v>
+        <v>3336.141530723429</v>
       </c>
       <c r="Q38" t="n">
-        <v>3578.756127323416</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="R38" t="n">
-        <v>3578.756127323416</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="S38" t="n">
         <v>3510.81846863475</v>
       </c>
       <c r="T38" t="n">
-        <v>3384.741514961162</v>
+        <v>3384.741514961161</v>
       </c>
       <c r="U38" t="n">
-        <v>3219.876720956046</v>
+        <v>3219.876720956045</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.642678893687</v>
+        <v>2977.642678893686</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.702868904785</v>
+        <v>2713.702868904784</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.065955924917</v>
+        <v>2429.065955924916</v>
       </c>
       <c r="Y38" t="n">
         <v>2127.755469230317</v>
@@ -7251,22 +7251,22 @@
         <v>71.57512254646834</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0353834628041</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="K39" t="n">
-        <v>516.4145212787299</v>
+        <v>398.9542603623941</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.020569454007</v>
+        <v>900.5603085376711</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.302376973546</v>
+        <v>1537.89012916971</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.546997731342</v>
+        <v>1773.82513868488</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.963570916889</v>
+        <v>2320.241711870426</v>
       </c>
       <c r="P39" t="n">
         <v>2426.507976156924</v>
@@ -7312,25 +7312,25 @@
         <v>431.3287178739308</v>
       </c>
       <c r="D40" t="n">
-        <v>370.0409237428071</v>
+        <v>370.0409237428072</v>
       </c>
       <c r="E40" t="n">
-        <v>310.9566754416261</v>
+        <v>310.9566754416262</v>
       </c>
       <c r="F40" t="n">
-        <v>252.8955732249278</v>
+        <v>252.8955732249279</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1067180381309</v>
+        <v>173.1067180381311</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5844052809471</v>
+        <v>107.5844052809472</v>
       </c>
       <c r="I40" t="n">
         <v>71.57512254646834</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3651819589043</v>
+        <v>140.3651819589044</v>
       </c>
       <c r="K40" t="n">
         <v>327.2381533692358</v>
@@ -7348,7 +7348,7 @@
         <v>1439.122078339887</v>
       </c>
       <c r="P40" t="n">
-        <v>1650.344014331519</v>
+        <v>1650.34401433152</v>
       </c>
       <c r="Q40" t="n">
         <v>1739.93257702283</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1829.984474447408</v>
+        <v>1829.984474447407</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.850802788209</v>
+        <v>1549.850802788208</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.41394946267</v>
+        <v>1280.413949462669</v>
       </c>
       <c r="E41" t="n">
-        <v>983.4545421456379</v>
+        <v>983.454542145637</v>
       </c>
       <c r="F41" t="n">
-        <v>661.2974826372424</v>
+        <v>661.2974826372415</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0143457613895</v>
+        <v>333.0143457613894</v>
       </c>
       <c r="H41" t="n">
         <v>103.3722335352579</v>
       </c>
       <c r="I41" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J41" t="n">
         <v>258.201917578165</v>
@@ -7418,43 +7418,43 @@
         <v>1207.722162394228</v>
       </c>
       <c r="M41" t="n">
-        <v>1743.996963168589</v>
+        <v>1835.275158642874</v>
       </c>
       <c r="N41" t="n">
-        <v>2367.072425437184</v>
+        <v>2458.350620911469</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.237278286809</v>
+        <v>3001.515473761094</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.141530723427</v>
+        <v>3427.419726197711</v>
       </c>
       <c r="Q41" t="n">
-        <v>3578.756127323415</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="R41" t="n">
-        <v>3578.756127323418</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="S41" t="n">
-        <v>3510.818468634752</v>
+        <v>3510.818468634751</v>
       </c>
       <c r="T41" t="n">
         <v>3384.741514961162</v>
       </c>
       <c r="U41" t="n">
-        <v>3219.876720956046</v>
+        <v>3219.876720956045</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.642678893687</v>
+        <v>2977.642678893686</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.702868904785</v>
+        <v>2713.702868904784</v>
       </c>
       <c r="X41" t="n">
         <v>2429.065955924917</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.755469230318</v>
+        <v>2127.755469230317</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>117.9257890454681</v>
       </c>
       <c r="I42" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0353834628041</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="K42" t="n">
-        <v>516.4145212787298</v>
+        <v>398.9542603623941</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.020569454007</v>
+        <v>900.5603085376711</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.190890393903</v>
+        <v>1537.89012916971</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.546997731342</v>
+        <v>1773.82513868488</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.963570916889</v>
+        <v>2320.241711870426</v>
       </c>
       <c r="P42" t="n">
         <v>2426.507976156924</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.4360555206259</v>
+        <v>511.4360555206257</v>
       </c>
       <c r="C43" t="n">
-        <v>431.328717873931</v>
+        <v>431.3287178739309</v>
       </c>
       <c r="D43" t="n">
         <v>370.0409237428073</v>
       </c>
       <c r="E43" t="n">
-        <v>310.9566754416263</v>
+        <v>310.9566754416262</v>
       </c>
       <c r="F43" t="n">
         <v>252.8955732249279</v>
@@ -7564,19 +7564,19 @@
         <v>107.5844052809471</v>
       </c>
       <c r="I43" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J43" t="n">
         <v>140.3651819589043</v>
       </c>
       <c r="K43" t="n">
-        <v>327.2381533692356</v>
+        <v>327.2381533692357</v>
       </c>
       <c r="L43" t="n">
-        <v>597.550505017652</v>
+        <v>597.5505050176521</v>
       </c>
       <c r="M43" t="n">
-        <v>888.2134764675122</v>
+        <v>888.2134764675118</v>
       </c>
       <c r="N43" t="n">
         <v>1179.469868127557</v>
@@ -7585,10 +7585,10 @@
         <v>1439.122078339887</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.34401433152</v>
+        <v>1650.344014331519</v>
       </c>
       <c r="Q43" t="n">
-        <v>1739.932577022831</v>
+        <v>1739.93257702283</v>
       </c>
       <c r="R43" t="n">
         <v>1697.795359914913</v>
@@ -7597,22 +7597,22 @@
         <v>1578.994739327411</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.148005486494</v>
+        <v>1442.148005486493</v>
       </c>
       <c r="U43" t="n">
         <v>1241.8240822292</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.968439304526</v>
+        <v>1075.968439304525</v>
       </c>
       <c r="W43" t="n">
-        <v>875.380114548777</v>
+        <v>875.3801145487766</v>
       </c>
       <c r="X43" t="n">
-        <v>736.2194089319717</v>
+        <v>736.2194089319714</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.2556750696535</v>
+        <v>604.2556750696533</v>
       </c>
     </row>
     <row r="44">
@@ -7631,55 +7631,55 @@
         <v>1280.413949462669</v>
       </c>
       <c r="E44" t="n">
-        <v>983.4545421456367</v>
+        <v>983.4545421456369</v>
       </c>
       <c r="F44" t="n">
-        <v>661.2974826372413</v>
+        <v>661.2974826372417</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0143457613885</v>
+        <v>333.014345761389</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3722335352577</v>
+        <v>103.3722335352578</v>
       </c>
       <c r="I44" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J44" t="n">
-        <v>166.9237221038802</v>
+        <v>166.923722103882</v>
       </c>
       <c r="K44" t="n">
-        <v>567.3737140982213</v>
+        <v>567.3737140982231</v>
       </c>
       <c r="L44" t="n">
-        <v>1116.443966919943</v>
+        <v>1116.443966919945</v>
       </c>
       <c r="M44" t="n">
-        <v>1743.996963168589</v>
+        <v>1743.996963168591</v>
       </c>
       <c r="N44" t="n">
-        <v>2367.072425437184</v>
+        <v>2367.072425437186</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.237278286809</v>
+        <v>2910.237278286811</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.141530723427</v>
+        <v>3336.141530723429</v>
       </c>
       <c r="Q44" t="n">
-        <v>3578.756127323415</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="R44" t="n">
-        <v>3578.756127323415</v>
+        <v>3578.756127323417</v>
       </c>
       <c r="S44" t="n">
-        <v>3510.818468634749</v>
+        <v>3510.818468634751</v>
       </c>
       <c r="T44" t="n">
-        <v>3384.74151496116</v>
+        <v>3384.741514961162</v>
       </c>
       <c r="U44" t="n">
-        <v>3219.876720956044</v>
+        <v>3219.876720956045</v>
       </c>
       <c r="V44" t="n">
         <v>2977.642678893686</v>
@@ -7722,25 +7722,25 @@
         <v>117.9257890454681</v>
       </c>
       <c r="I45" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0353834628041</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="K45" t="n">
-        <v>516.4145212787298</v>
+        <v>398.9542603623941</v>
       </c>
       <c r="L45" t="n">
-        <v>1018.020569454007</v>
+        <v>900.5603085376711</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.190890393903</v>
+        <v>1537.89012916971</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.546997731342</v>
+        <v>1773.82513868488</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.963570916889</v>
+        <v>2320.241711870426</v>
       </c>
       <c r="P45" t="n">
         <v>2426.507976156924</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.4360555206272</v>
+        <v>511.4360555206263</v>
       </c>
       <c r="C46" t="n">
-        <v>431.3287178739325</v>
+        <v>431.3287178739315</v>
       </c>
       <c r="D46" t="n">
-        <v>370.040923742809</v>
+        <v>370.0409237428079</v>
       </c>
       <c r="E46" t="n">
-        <v>310.956675441628</v>
+        <v>310.9566754416269</v>
       </c>
       <c r="F46" t="n">
-        <v>252.8955732249299</v>
+        <v>252.8955732249279</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1067180381331</v>
+        <v>173.106718038131</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5844052809471</v>
+        <v>107.5844052809472</v>
       </c>
       <c r="I46" t="n">
-        <v>71.57512254646831</v>
+        <v>71.57512254646834</v>
       </c>
       <c r="J46" t="n">
         <v>140.3651819589044</v>
       </c>
       <c r="K46" t="n">
-        <v>327.2381533692359</v>
+        <v>327.2381533692358</v>
       </c>
       <c r="L46" t="n">
-        <v>597.5505050176523</v>
+        <v>597.5505050176522</v>
       </c>
       <c r="M46" t="n">
-        <v>888.2134764675122</v>
+        <v>888.213476467512</v>
       </c>
       <c r="N46" t="n">
         <v>1179.469868127557</v>
       </c>
       <c r="O46" t="n">
-        <v>1439.122078339888</v>
+        <v>1439.122078339887</v>
       </c>
       <c r="P46" t="n">
         <v>1650.34401433152</v>
@@ -7828,10 +7828,10 @@
         <v>1739.932577022831</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.795359914914</v>
+        <v>1697.795359914913</v>
       </c>
       <c r="S46" t="n">
-        <v>1578.994739327412</v>
+        <v>1578.994739327411</v>
       </c>
       <c r="T46" t="n">
         <v>1442.148005486494</v>
@@ -7840,16 +7840,16 @@
         <v>1241.824082229201</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.968439304527</v>
+        <v>1075.968439304526</v>
       </c>
       <c r="W46" t="n">
-        <v>875.3801145487784</v>
+        <v>875.3801145487774</v>
       </c>
       <c r="X46" t="n">
-        <v>736.2194089319732</v>
+        <v>736.2194089319722</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.2556750696547</v>
+        <v>604.2556750696539</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>7.444307142089869</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>197.0685461870052</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>207.7023521168314</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627471</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.444307142089869</v>
+        <v>7.444307142089897</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>357.8316037546159</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>398.3083729244277</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720754</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>69.58435699025904</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>207.7023521168317</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>69.58435699025929</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>78.30526985268017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>69.58435699025932</v>
       </c>
       <c r="N27" t="n">
-        <v>69.58435699025901</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>69.58435699025904</v>
       </c>
       <c r="N30" t="n">
-        <v>69.58435699025901</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>43.63324762547852</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>69.58435699025901</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>69.58435699025878</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>153.7048204894728</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.444307142089869</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,16 +10908,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>69.58435699025878</v>
+        <v>40.98879007851488</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>357.3133360440597</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>120.1147932111341</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.444307142089869</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,16 +11145,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>69.58435699025904</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>40.98879007851488</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.89641772330123</v>
+        <v>76.89641772330305</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.444307142089869</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>69.58435699025904</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>40.98879007851488</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>333.2712626572743</v>
       </c>
       <c r="E11" t="n">
-        <v>226.6842913375077</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>246.4658020440509</v>
       </c>
       <c r="G11" t="n">
-        <v>391.5290833720856</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.00791774389297</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>191.3449620018449</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>327.8291897540043</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>158.4202012185286</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>145.8350421352192</v>
+        <v>145.8350421352191</v>
       </c>
       <c r="D13" t="n">
-        <v>127.2036940548037</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>125.0221836831605</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>88.06368809716437</v>
+        <v>58.62294263341452</v>
       </c>
       <c r="G13" t="n">
-        <v>145.5197444999203</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.3958674946034</v>
       </c>
       <c r="I13" t="n">
-        <v>102.1779677721254</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>264.8494618897115</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>230.7258643604193</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>265.1112193731823</v>
       </c>
       <c r="X13" t="n">
-        <v>204.2978764256285</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>197.1728743886861</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>343.8611128075991</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>385.4642667783029</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>178.2408748694295</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>214.9109050086804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>327.8291897540043</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>364.8261596926449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>158.4202012185286</v>
+        <v>158.4202012185288</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>127.2036940548038</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.0221836831606</v>
       </c>
       <c r="F16" t="n">
-        <v>124.0092690595226</v>
+        <v>124.0092690595227</v>
       </c>
       <c r="G16" t="n">
-        <v>145.5197444999203</v>
+        <v>145.5197444999204</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>102.1779677721254</v>
+        <v>102.1779677721255</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.2446228018298</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.1413922466182</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.0070443674997</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>230.7258643604193</v>
+        <v>230.7258643604195</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>171.5496118608916</v>
       </c>
       <c r="X16" t="n">
-        <v>204.2978764256285</v>
+        <v>204.2978764256286</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.5553045715922</v>
+        <v>197.1728743886863</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.99392700672187</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8914505309148</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.74020583814122</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>143.6255833757739</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>85.33062517153053</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.69927709111505</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>58.29495820424609</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>70.89145053091474</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.034855753746285</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.12073127994134</v>
+        <v>12.40853956518981</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.69927709111505</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.51776671947187</v>
       </c>
       <c r="F25" t="n">
-        <v>63.50485209583394</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.95712595077869</v>
+        <v>85.33062517153054</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.55475236610482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.74020583814116</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.6684574249975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>19.98860809284872</v>
+        <v>41.67355080843673</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.6369752829296</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>101.9520325673389</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.92630628466382</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>66.69927709111512</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>64.51776671947189</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.89145053091477</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.216366125390433</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.174260771425907e-12</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899563.5730178911</v>
+        <v>899563.5730178909</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26320,37 +26320,37 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>408671.5400404761</v>
+        <v>408671.5400404765</v>
       </c>
       <c r="F2" t="n">
-        <v>408671.5400404767</v>
+        <v>408671.5400404759</v>
       </c>
       <c r="G2" t="n">
-        <v>470116.9846213772</v>
+        <v>470116.9846213778</v>
       </c>
       <c r="H2" t="n">
+        <v>470116.9846213776</v>
+      </c>
+      <c r="I2" t="n">
+        <v>470116.9846213774</v>
+      </c>
+      <c r="J2" t="n">
+        <v>470116.9846213774</v>
+      </c>
+      <c r="K2" t="n">
+        <v>470116.9846213775</v>
+      </c>
+      <c r="L2" t="n">
         <v>470116.9846213773</v>
       </c>
-      <c r="I2" t="n">
-        <v>470116.9846213776</v>
-      </c>
-      <c r="J2" t="n">
-        <v>470116.9846213775</v>
-      </c>
-      <c r="K2" t="n">
-        <v>470116.9846213776</v>
-      </c>
-      <c r="L2" t="n">
-        <v>470116.9846213776</v>
-      </c>
       <c r="M2" t="n">
+        <v>472099.0176719627</v>
+      </c>
+      <c r="N2" t="n">
+        <v>472099.0176719625</v>
+      </c>
+      <c r="O2" t="n">
         <v>472099.0176719626</v>
-      </c>
-      <c r="N2" t="n">
-        <v>472099.0176719629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>472099.0176719632</v>
       </c>
       <c r="P2" t="n">
         <v>472099.0176719626</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48403.53357095099</v>
+        <v>48403.53357095108</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80189.36576983315</v>
+        <v>80189.36576983314</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48403.53357095087</v>
+        <v>48403.53357095104</v>
       </c>
       <c r="M3" t="n">
-        <v>167717.8493639502</v>
+        <v>167717.8493639501</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
         <v>17129.4231707269</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>86793.46322004702</v>
+        <v>86793.46322004707</v>
       </c>
       <c r="F4" t="n">
-        <v>86793.46322004702</v>
+        <v>86793.46322004688</v>
       </c>
       <c r="G4" t="n">
+        <v>147935.9430510334</v>
+      </c>
+      <c r="H4" t="n">
         <v>147935.9430510333</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>147935.9430510334</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>147935.9430510333</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>147935.9430510334</v>
       </c>
-      <c r="K4" t="n">
-        <v>147935.9430510332</v>
-      </c>
       <c r="L4" t="n">
-        <v>147935.9430510332</v>
+        <v>147935.9430510333</v>
       </c>
       <c r="M4" t="n">
         <v>152544.9993512458</v>
       </c>
       <c r="N4" t="n">
+        <v>152544.9993512459</v>
+      </c>
+      <c r="O4" t="n">
         <v>152544.9993512458</v>
-      </c>
-      <c r="O4" t="n">
-        <v>152544.9993512459</v>
       </c>
       <c r="P4" t="n">
         <v>152544.9993512459</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>70420.76205139751</v>
+      </c>
+      <c r="F5" t="n">
         <v>70420.7620513975</v>
-      </c>
-      <c r="F5" t="n">
-        <v>70420.76205139751</v>
       </c>
       <c r="G5" t="n">
         <v>75507.30788111786</v>
@@ -26491,13 +26491,13 @@
         <v>75507.30788111786</v>
       </c>
       <c r="J5" t="n">
+        <v>75507.30788111784</v>
+      </c>
+      <c r="K5" t="n">
         <v>75507.30788111786</v>
       </c>
-      <c r="K5" t="n">
-        <v>75507.30788111784</v>
-      </c>
       <c r="L5" t="n">
-        <v>75507.30788111784</v>
+        <v>75507.30788111786</v>
       </c>
       <c r="M5" t="n">
         <v>74598.02643772017</v>
@@ -26506,10 +26506,10 @@
         <v>74598.02643772017</v>
       </c>
       <c r="O5" t="n">
-        <v>74598.02643772014</v>
+        <v>74598.02643772017</v>
       </c>
       <c r="P5" t="n">
-        <v>74598.02643772014</v>
+        <v>74598.02643772017</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3017.371328617439</v>
+        <v>-3017.371328617322</v>
       </c>
       <c r="C6" t="n">
         <v>77752.06020293036</v>
       </c>
       <c r="D6" t="n">
-        <v>77752.06020293047</v>
+        <v>77752.06020293041</v>
       </c>
       <c r="E6" t="n">
-        <v>-439809.9495873827</v>
+        <v>-440085.7212292584</v>
       </c>
       <c r="F6" t="n">
-        <v>251457.3147690321</v>
+        <v>251181.5431271556</v>
       </c>
       <c r="G6" t="n">
-        <v>198270.2001182751</v>
+        <v>198261.5825832729</v>
       </c>
       <c r="H6" t="n">
-        <v>246673.733689226</v>
+        <v>246665.1161542239</v>
       </c>
       <c r="I6" t="n">
-        <v>246673.7336892264</v>
+        <v>246665.1161542236</v>
       </c>
       <c r="J6" t="n">
-        <v>166484.3679193931</v>
+        <v>166475.7503843906</v>
       </c>
       <c r="K6" t="n">
-        <v>246673.7336892266</v>
+        <v>246665.1161542238</v>
       </c>
       <c r="L6" t="n">
-        <v>198270.2001182757</v>
+        <v>198261.5825832725</v>
       </c>
       <c r="M6" t="n">
-        <v>77238.14251904632</v>
+        <v>77238.14251904655</v>
       </c>
       <c r="N6" t="n">
-        <v>244955.9918829969</v>
+        <v>244955.9918829964</v>
       </c>
       <c r="O6" t="n">
-        <v>227826.5687122702</v>
+        <v>227826.5687122697</v>
       </c>
       <c r="P6" t="n">
-        <v>244955.9918829965</v>
+        <v>244955.9918829966</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="F2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="G2" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="H2" t="n">
         <v>81.91619592709731</v>
@@ -26707,25 +26707,25 @@
         <v>81.91619592709731</v>
       </c>
       <c r="J2" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="K2" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="L2" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="M2" t="n">
         <v>87.94055682839995</v>
       </c>
       <c r="N2" t="n">
+        <v>87.94055682839999</v>
+      </c>
+      <c r="O2" t="n">
         <v>87.94055682839995</v>
       </c>
-      <c r="O2" t="n">
-        <v>87.94055682839992</v>
-      </c>
       <c r="P2" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
     </row>
     <row r="3">
@@ -26750,16 +26750,16 @@
         <v>587.5164509356641</v>
       </c>
       <c r="G3" t="n">
-        <v>587.5164509356641</v>
+        <v>587.516450935664</v>
       </c>
       <c r="H3" t="n">
-        <v>587.5164509356641</v>
+        <v>587.516450935664</v>
       </c>
       <c r="I3" t="n">
-        <v>587.5164509356641</v>
+        <v>587.516450935664</v>
       </c>
       <c r="J3" t="n">
-        <v>587.5164509356641</v>
+        <v>587.516450935664</v>
       </c>
       <c r="K3" t="n">
         <v>587.5164509356641</v>
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>917.9742857783754</v>
+        <v>917.9742857783755</v>
       </c>
       <c r="F4" t="n">
         <v>917.9742857783755</v>
       </c>
       <c r="G4" t="n">
-        <v>917.9742857783758</v>
+        <v>917.9742857783755</v>
       </c>
       <c r="H4" t="n">
-        <v>917.9742857783757</v>
+        <v>917.9742857783755</v>
       </c>
       <c r="I4" t="n">
         <v>917.9742857783755</v>
@@ -26814,22 +26814,22 @@
         <v>917.9742857783755</v>
       </c>
       <c r="K4" t="n">
-        <v>917.9742857783755</v>
+        <v>917.9742857783756</v>
       </c>
       <c r="L4" t="n">
-        <v>917.9742857783755</v>
+        <v>917.9742857783756</v>
       </c>
       <c r="M4" t="n">
-        <v>894.6890318308541</v>
+        <v>894.6890318308542</v>
       </c>
       <c r="N4" t="n">
-        <v>894.6890318308541</v>
+        <v>894.6890318308542</v>
       </c>
       <c r="O4" t="n">
-        <v>894.6890318308538</v>
+        <v>894.6890318308542</v>
       </c>
       <c r="P4" t="n">
-        <v>894.6890318308538</v>
+        <v>894.6890318308542</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60.50441696368858</v>
+        <v>60.50441696368885</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340867</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.50441696368858</v>
+        <v>60.5044169636888</v>
       </c>
       <c r="M2" t="n">
-        <v>6.024360901302785</v>
+        <v>6.0243609013026</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>21.41177896340862</v>
+        <v>21.41177896340863</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>676.9599969007163</v>
+        <v>676.9599969007164</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.6747429531949</v>
+        <v>653.6747429531951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.50441696368858</v>
+        <v>60.50441696368885</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340867</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>676.9599969007163</v>
+        <v>676.9599969007164</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>161.0465736907239</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,10 +27433,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55.55869374528694</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1120586621556</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>182.0154662183124</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>79.32410557691739</v>
       </c>
     </row>
     <row r="7">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>119.7495544039028</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>364.436345787192</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,10 +27907,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>309.4547625938464</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,10 +27980,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>60.13409625023732</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>134.3268792064565</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="C11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="D11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="E11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="F11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="G11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="H11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="I11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.504976188034476</v>
       </c>
       <c r="S11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="T11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="U11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="V11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="W11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="X11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="C13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="D13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="E13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="F13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="G13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="H13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="I13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="J13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="K13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="L13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="M13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="N13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="O13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="P13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="R13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="S13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="T13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="U13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="V13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="W13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="X13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340869</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="C14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="D14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="E14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="F14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="G14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="H14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="I14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.504976188034448</v>
       </c>
       <c r="S14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="T14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="U14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="V14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="W14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="X14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="C16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="D16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="E16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="F16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="G16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="H16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="I16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="J16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="K16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="L16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="M16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="N16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="O16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="P16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="R16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="S16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="T16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="U16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="V16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="W16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="X16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.41177896340865</v>
+        <v>21.41177896340852</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="C17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="D17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="E17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="F17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="G17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="H17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="I17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.504976188034448</v>
+        <v>1.504976188034476</v>
       </c>
       <c r="S17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="T17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="U17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="V17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="W17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="X17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="C19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="D19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="E19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="F19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="G19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="H19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="I19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="J19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="K19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="L19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="M19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="N19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="O19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="P19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="R19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="S19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="T19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="U19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="V19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="W19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="X19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709738</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.504976188034448</v>
+        <v>1.504976188034476</v>
       </c>
       <c r="S20" t="n">
         <v>81.91619592709731</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.504976188034448</v>
+        <v>1.504976188034476</v>
       </c>
       <c r="S23" t="n">
         <v>81.91619592709731</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="C26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="D26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="E26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="F26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="G26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="H26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="I26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.504976188034448</v>
+        <v>1.504976188034476</v>
       </c>
       <c r="S26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="T26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="U26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="V26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="W26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="X26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="C28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="D28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="E28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="F28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="G28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="H28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="I28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="J28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="K28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="L28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="M28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="N28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="O28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="P28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="R28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="S28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="T28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="U28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="V28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="W28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="X28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.91619592709731</v>
+        <v>81.91619592709729</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="C29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="D29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="E29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="F29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="G29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="H29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="I29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.504976188034448</v>
       </c>
       <c r="S29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="T29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="U29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="V29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="W29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="X29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="C31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="D31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="E31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="F31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="G31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="H31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="I31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="J31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="K31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="L31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="M31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="N31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="O31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="P31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="R31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="S31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="T31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="U31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="V31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="W31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="X31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709733</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="C32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="D32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="E32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="F32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="G32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="H32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="I32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>1.504976188034448</v>
       </c>
       <c r="S32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="T32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="U32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="V32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="W32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="X32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="C34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="D34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="E34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="F34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="G34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="H34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="I34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="J34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="K34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="L34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="M34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="N34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="O34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="P34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="R34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="S34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="T34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="U34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="V34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="W34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="X34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.91619592709723</v>
+        <v>81.91619592709728</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>87.94055682839995</v>
       </c>
       <c r="M37" t="n">
-        <v>87.94055682839968</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="N37" t="n">
         <v>87.94055682839995</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="C38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="D38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="E38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="F38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="G38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="H38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="I38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>1.504976188034448</v>
       </c>
       <c r="S38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="T38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="U38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="V38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="W38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="X38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="C40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="D40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="E40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="F40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="G40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="H40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="I40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="J40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="K40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="L40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="M40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="N40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="O40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="P40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839925</v>
       </c>
       <c r="R40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="S40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="T40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="U40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="V40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="W40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="X40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.94055682839995</v>
+        <v>87.94055682839999</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="C41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="D41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="E41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="F41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="G41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="H41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="I41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.504976188037149</v>
+        <v>1.504976188034448</v>
       </c>
       <c r="S41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="T41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="U41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="V41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="W41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="X41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="C43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="D43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="E43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="F43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="G43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="H43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="I43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="J43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="K43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="L43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="M43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="N43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="O43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="P43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="R43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="S43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="T43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="U43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="V43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="W43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="X43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.94055682839992</v>
+        <v>87.94055682839995</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="C44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="D44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="E44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="F44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="G44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="H44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="I44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.504976188034448</v>
       </c>
       <c r="S44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="T44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="U44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="V44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="W44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="X44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="C46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="D46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="E46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="F46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="G46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="H46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="I46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="J46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="K46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="L46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="M46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="N46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="O46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="P46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="R46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="S46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="T46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="U46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="V46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="W46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="X46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.94055682840006</v>
+        <v>87.94055682840001</v>
       </c>
     </row>
   </sheetData>
@@ -32230,40 +32230,40 @@
         <v>24.18855418349695</v>
       </c>
       <c r="I17" t="n">
-        <v>91.0561928631043</v>
+        <v>91.05619286310429</v>
       </c>
       <c r="J17" t="n">
         <v>200.4612035280435</v>
       </c>
       <c r="K17" t="n">
-        <v>300.4393798822412</v>
+        <v>300.4393798822411</v>
       </c>
       <c r="L17" t="n">
-        <v>372.7216174111752</v>
+        <v>372.7216174111751</v>
       </c>
       <c r="M17" t="n">
-        <v>414.7246151371133</v>
+        <v>414.7246151371132</v>
       </c>
       <c r="N17" t="n">
-        <v>421.4352929912679</v>
+        <v>421.4352929912678</v>
       </c>
       <c r="O17" t="n">
-        <v>397.9493966737141</v>
+        <v>397.949396673714</v>
       </c>
       <c r="P17" t="n">
         <v>339.6406031763303</v>
       </c>
       <c r="Q17" t="n">
-        <v>255.055948305442</v>
+        <v>255.0559483054419</v>
       </c>
       <c r="R17" t="n">
         <v>148.3641417531152</v>
       </c>
       <c r="S17" t="n">
-        <v>53.82123065606613</v>
+        <v>53.82123065606612</v>
       </c>
       <c r="T17" t="n">
-        <v>10.33910859887787</v>
+        <v>10.33910859887786</v>
       </c>
       <c r="U17" t="n">
         <v>0.1889500143712687</v>
@@ -32309,16 +32309,16 @@
         <v>12.20482287698427</v>
       </c>
       <c r="I18" t="n">
-        <v>43.50947301740532</v>
+        <v>43.50947301740531</v>
       </c>
       <c r="J18" t="n">
         <v>119.3933195245768</v>
       </c>
       <c r="K18" t="n">
-        <v>204.0621997556448</v>
+        <v>204.0621997556447</v>
       </c>
       <c r="L18" t="n">
-        <v>274.3868104110383</v>
+        <v>274.3868104110382</v>
       </c>
       <c r="M18" t="n">
         <v>320.1964657599369</v>
@@ -32336,16 +32336,16 @@
         <v>161.3120640380337</v>
       </c>
       <c r="R18" t="n">
-        <v>78.46115924004967</v>
+        <v>78.46115924004965</v>
       </c>
       <c r="S18" t="n">
         <v>23.47294499728807</v>
       </c>
       <c r="T18" t="n">
-        <v>5.093656777451653</v>
+        <v>5.093656777451652</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08313912041542421</v>
+        <v>0.08313912041542419</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.059455895129886</v>
       </c>
       <c r="H19" t="n">
-        <v>9.419526049427539</v>
+        <v>9.419526049427537</v>
       </c>
       <c r="I19" t="n">
-        <v>31.86072819172422</v>
+        <v>31.86072819172421</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90353178568294</v>
+        <v>74.90353178568292</v>
       </c>
       <c r="K19" t="n">
         <v>123.0895121796358</v>
@@ -32412,7 +32412,7 @@
         <v>128.1363748073454</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.71498409128527</v>
+        <v>88.71498409128526</v>
       </c>
       <c r="R19" t="n">
         <v>47.63698961193104</v>
@@ -32421,10 +32421,10 @@
         <v>18.46342682694537</v>
       </c>
       <c r="T19" t="n">
-        <v>4.526766097373148</v>
+        <v>4.526766097373147</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05778850337072112</v>
+        <v>0.05778850337072111</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,40 +32467,40 @@
         <v>24.18855418349695</v>
       </c>
       <c r="I20" t="n">
-        <v>91.0561928631043</v>
+        <v>91.05619286310429</v>
       </c>
       <c r="J20" t="n">
         <v>200.4612035280435</v>
       </c>
       <c r="K20" t="n">
-        <v>300.4393798822412</v>
+        <v>300.4393798822411</v>
       </c>
       <c r="L20" t="n">
-        <v>372.7216174111752</v>
+        <v>372.7216174111751</v>
       </c>
       <c r="M20" t="n">
-        <v>414.7246151371133</v>
+        <v>414.7246151371132</v>
       </c>
       <c r="N20" t="n">
-        <v>421.4352929912679</v>
+        <v>421.4352929912678</v>
       </c>
       <c r="O20" t="n">
-        <v>397.9493966737141</v>
+        <v>397.949396673714</v>
       </c>
       <c r="P20" t="n">
         <v>339.6406031763303</v>
       </c>
       <c r="Q20" t="n">
-        <v>255.055948305442</v>
+        <v>255.0559483054419</v>
       </c>
       <c r="R20" t="n">
         <v>148.3641417531152</v>
       </c>
       <c r="S20" t="n">
-        <v>53.82123065606613</v>
+        <v>53.82123065606612</v>
       </c>
       <c r="T20" t="n">
-        <v>10.33910859887787</v>
+        <v>10.33910859887786</v>
       </c>
       <c r="U20" t="n">
         <v>0.1889500143712687</v>
@@ -32546,16 +32546,16 @@
         <v>12.20482287698427</v>
       </c>
       <c r="I21" t="n">
-        <v>43.50947301740532</v>
+        <v>43.50947301740531</v>
       </c>
       <c r="J21" t="n">
         <v>119.3933195245768</v>
       </c>
       <c r="K21" t="n">
-        <v>204.0621997556448</v>
+        <v>204.0621997556447</v>
       </c>
       <c r="L21" t="n">
-        <v>274.3868104110383</v>
+        <v>274.3868104110382</v>
       </c>
       <c r="M21" t="n">
         <v>320.1964657599369</v>
@@ -32573,16 +32573,16 @@
         <v>161.3120640380337</v>
       </c>
       <c r="R21" t="n">
-        <v>78.46115924004967</v>
+        <v>78.46115924004965</v>
       </c>
       <c r="S21" t="n">
         <v>23.47294499728807</v>
       </c>
       <c r="T21" t="n">
-        <v>5.093656777451653</v>
+        <v>5.093656777451652</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08313912041542421</v>
+        <v>0.08313912041542419</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.059455895129886</v>
       </c>
       <c r="H22" t="n">
-        <v>9.419526049427539</v>
+        <v>9.419526049427537</v>
       </c>
       <c r="I22" t="n">
-        <v>31.86072819172422</v>
+        <v>31.86072819172421</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90353178568294</v>
+        <v>74.90353178568292</v>
       </c>
       <c r="K22" t="n">
         <v>123.0895121796358</v>
@@ -32649,7 +32649,7 @@
         <v>128.1363748073454</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.71498409128527</v>
+        <v>88.71498409128526</v>
       </c>
       <c r="R22" t="n">
         <v>47.63698961193104</v>
@@ -32658,10 +32658,10 @@
         <v>18.46342682694537</v>
       </c>
       <c r="T22" t="n">
-        <v>4.526766097373148</v>
+        <v>4.526766097373147</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05778850337072112</v>
+        <v>0.05778850337072111</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,40 +32704,40 @@
         <v>24.18855418349695</v>
       </c>
       <c r="I23" t="n">
-        <v>91.0561928631043</v>
+        <v>91.05619286310429</v>
       </c>
       <c r="J23" t="n">
         <v>200.4612035280435</v>
       </c>
       <c r="K23" t="n">
-        <v>300.4393798822412</v>
+        <v>300.4393798822411</v>
       </c>
       <c r="L23" t="n">
-        <v>372.7216174111752</v>
+        <v>372.7216174111751</v>
       </c>
       <c r="M23" t="n">
-        <v>414.7246151371133</v>
+        <v>414.7246151371132</v>
       </c>
       <c r="N23" t="n">
-        <v>421.4352929912679</v>
+        <v>421.4352929912678</v>
       </c>
       <c r="O23" t="n">
-        <v>397.9493966737141</v>
+        <v>397.949396673714</v>
       </c>
       <c r="P23" t="n">
         <v>339.6406031763303</v>
       </c>
       <c r="Q23" t="n">
-        <v>255.055948305442</v>
+        <v>255.0559483054419</v>
       </c>
       <c r="R23" t="n">
         <v>148.3641417531152</v>
       </c>
       <c r="S23" t="n">
-        <v>53.82123065606613</v>
+        <v>53.82123065606612</v>
       </c>
       <c r="T23" t="n">
-        <v>10.33910859887787</v>
+        <v>10.33910859887786</v>
       </c>
       <c r="U23" t="n">
         <v>0.1889500143712687</v>
@@ -32783,16 +32783,16 @@
         <v>12.20482287698427</v>
       </c>
       <c r="I24" t="n">
-        <v>43.50947301740532</v>
+        <v>43.50947301740531</v>
       </c>
       <c r="J24" t="n">
         <v>119.3933195245768</v>
       </c>
       <c r="K24" t="n">
-        <v>204.0621997556448</v>
+        <v>204.0621997556447</v>
       </c>
       <c r="L24" t="n">
-        <v>274.3868104110383</v>
+        <v>274.3868104110382</v>
       </c>
       <c r="M24" t="n">
         <v>320.1964657599369</v>
@@ -32810,16 +32810,16 @@
         <v>161.3120640380337</v>
       </c>
       <c r="R24" t="n">
-        <v>78.46115924004967</v>
+        <v>78.46115924004965</v>
       </c>
       <c r="S24" t="n">
         <v>23.47294499728807</v>
       </c>
       <c r="T24" t="n">
-        <v>5.093656777451653</v>
+        <v>5.093656777451652</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08313912041542421</v>
+        <v>0.08313912041542419</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.059455895129886</v>
       </c>
       <c r="H25" t="n">
-        <v>9.419526049427539</v>
+        <v>9.419526049427537</v>
       </c>
       <c r="I25" t="n">
-        <v>31.86072819172422</v>
+        <v>31.86072819172421</v>
       </c>
       <c r="J25" t="n">
-        <v>74.90353178568294</v>
+        <v>74.90353178568292</v>
       </c>
       <c r="K25" t="n">
         <v>123.0895121796358</v>
@@ -32886,7 +32886,7 @@
         <v>128.1363748073454</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.71498409128527</v>
+        <v>88.71498409128526</v>
       </c>
       <c r="R25" t="n">
         <v>47.63698961193104</v>
@@ -32895,10 +32895,10 @@
         <v>18.46342682694537</v>
       </c>
       <c r="T25" t="n">
-        <v>4.526766097373148</v>
+        <v>4.526766097373147</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05778850337072112</v>
+        <v>0.05778850337072111</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,40 +32941,40 @@
         <v>24.18855418349695</v>
       </c>
       <c r="I26" t="n">
-        <v>91.0561928631043</v>
+        <v>91.05619286310429</v>
       </c>
       <c r="J26" t="n">
         <v>200.4612035280435</v>
       </c>
       <c r="K26" t="n">
-        <v>300.4393798822412</v>
+        <v>300.4393798822411</v>
       </c>
       <c r="L26" t="n">
-        <v>372.7216174111752</v>
+        <v>372.7216174111751</v>
       </c>
       <c r="M26" t="n">
-        <v>414.7246151371133</v>
+        <v>414.7246151371132</v>
       </c>
       <c r="N26" t="n">
-        <v>421.4352929912679</v>
+        <v>421.4352929912678</v>
       </c>
       <c r="O26" t="n">
-        <v>397.9493966737141</v>
+        <v>397.949396673714</v>
       </c>
       <c r="P26" t="n">
         <v>339.6406031763303</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.055948305442</v>
+        <v>255.0559483054419</v>
       </c>
       <c r="R26" t="n">
         <v>148.3641417531152</v>
       </c>
       <c r="S26" t="n">
-        <v>53.82123065606613</v>
+        <v>53.82123065606612</v>
       </c>
       <c r="T26" t="n">
-        <v>10.33910859887787</v>
+        <v>10.33910859887786</v>
       </c>
       <c r="U26" t="n">
         <v>0.1889500143712687</v>
@@ -33020,16 +33020,16 @@
         <v>12.20482287698427</v>
       </c>
       <c r="I27" t="n">
-        <v>43.50947301740532</v>
+        <v>43.50947301740531</v>
       </c>
       <c r="J27" t="n">
         <v>119.3933195245768</v>
       </c>
       <c r="K27" t="n">
-        <v>204.0621997556448</v>
+        <v>204.0621997556447</v>
       </c>
       <c r="L27" t="n">
-        <v>274.3868104110383</v>
+        <v>274.3868104110382</v>
       </c>
       <c r="M27" t="n">
         <v>320.1964657599369</v>
@@ -33047,16 +33047,16 @@
         <v>161.3120640380337</v>
       </c>
       <c r="R27" t="n">
-        <v>78.46115924004967</v>
+        <v>78.46115924004965</v>
       </c>
       <c r="S27" t="n">
         <v>23.47294499728807</v>
       </c>
       <c r="T27" t="n">
-        <v>5.093656777451653</v>
+        <v>5.093656777451652</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08313912041542421</v>
+        <v>0.08313912041542419</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.059455895129886</v>
       </c>
       <c r="H28" t="n">
-        <v>9.419526049427539</v>
+        <v>9.419526049427537</v>
       </c>
       <c r="I28" t="n">
-        <v>31.86072819172422</v>
+        <v>31.86072819172421</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90353178568294</v>
+        <v>74.90353178568292</v>
       </c>
       <c r="K28" t="n">
         <v>123.0895121796358</v>
@@ -33123,7 +33123,7 @@
         <v>128.1363748073454</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.71498409128527</v>
+        <v>88.71498409128526</v>
       </c>
       <c r="R28" t="n">
         <v>47.63698961193104</v>
@@ -33132,10 +33132,10 @@
         <v>18.46342682694537</v>
       </c>
       <c r="T28" t="n">
-        <v>4.526766097373148</v>
+        <v>4.526766097373147</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05778850337072112</v>
+        <v>0.05778850337072111</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.956130632418791</v>
+        <v>2.956130632418834</v>
       </c>
       <c r="K13" t="n">
         <v>122.2317993171616</v>
@@ -35574,19 +35574,19 @@
         <v>206.5140015778535</v>
       </c>
       <c r="M13" t="n">
-        <v>227.070183195473</v>
+        <v>227.0701831954731</v>
       </c>
       <c r="N13" t="n">
         <v>227.6695975491953</v>
       </c>
       <c r="O13" t="n">
-        <v>195.7461819454435</v>
+        <v>195.7461819454436</v>
       </c>
       <c r="P13" t="n">
         <v>146.8267130356476</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.96471980299953</v>
+        <v>23.96471980299956</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.646728198319</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>330.6859977938644</v>
+        <v>263.289306968291</v>
       </c>
       <c r="L15" t="n">
-        <v>135.8324306311641</v>
+        <v>506.6727759346232</v>
       </c>
       <c r="M15" t="n">
         <v>643.7674955879186</v>
       </c>
       <c r="N15" t="n">
-        <v>676.6717756945027</v>
+        <v>197.3294013509492</v>
       </c>
       <c r="O15" t="n">
-        <v>365.7759653507546</v>
+        <v>551.9359325106527</v>
       </c>
       <c r="P15" t="n">
-        <v>107.3396608954523</v>
+        <v>425.8024295353895</v>
       </c>
       <c r="Q15" t="n">
-        <v>231.4075776878613</v>
+        <v>21.33028995201218</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.956130632418819</v>
+        <v>2.956130632418692</v>
       </c>
       <c r="K16" t="n">
-        <v>122.2317993171616</v>
+        <v>122.2317993171615</v>
       </c>
       <c r="L16" t="n">
-        <v>206.5140015778535</v>
+        <v>206.5140015778534</v>
       </c>
       <c r="M16" t="n">
-        <v>227.0701831954731</v>
+        <v>227.0701831954729</v>
       </c>
       <c r="N16" t="n">
-        <v>227.6695975491953</v>
+        <v>227.6695975491951</v>
       </c>
       <c r="O16" t="n">
-        <v>195.7461819454435</v>
+        <v>195.7461819454434</v>
       </c>
       <c r="P16" t="n">
-        <v>146.8267130356476</v>
+        <v>146.8267130356475</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.96471980299954</v>
+        <v>23.96471980299941</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>404.4949414084253</v>
       </c>
       <c r="L17" t="n">
-        <v>554.6164169916384</v>
+        <v>554.6164169916383</v>
       </c>
       <c r="M17" t="n">
         <v>633.891915402673</v>
       </c>
       <c r="N17" t="n">
-        <v>629.3691538066612</v>
+        <v>629.3691538066611</v>
       </c>
       <c r="O17" t="n">
-        <v>548.6513665147744</v>
+        <v>548.6513665147727</v>
       </c>
       <c r="P17" t="n">
         <v>430.2063155925434</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.0652490908972</v>
+        <v>245.0652490908971</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>66.2207607812858</v>
+        <v>330.6859977938643</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6640343857799</v>
+        <v>506.6727759346232</v>
       </c>
       <c r="M18" t="n">
-        <v>643.7674955879186</v>
+        <v>178.0624318379186</v>
       </c>
       <c r="N18" t="n">
-        <v>197.3294013509492</v>
+        <v>595.6377742753768</v>
       </c>
       <c r="O18" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P18" t="n">
-        <v>425.8024295353895</v>
+        <v>425.8024295353894</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.4075776878613</v>
+        <v>21.33028995201215</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.4605475961074</v>
+        <v>63.46054759610752</v>
       </c>
       <c r="K19" t="n">
-        <v>182.7362162808502</v>
+        <v>182.7362162808503</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0184185415421</v>
+        <v>267.0184185415422</v>
       </c>
       <c r="M19" t="n">
-        <v>287.5746001591617</v>
+        <v>287.5746001591618</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1740145128838</v>
+        <v>288.174014512884</v>
       </c>
       <c r="O19" t="n">
-        <v>256.2505989091321</v>
+        <v>256.2505989091322</v>
       </c>
       <c r="P19" t="n">
-        <v>207.3311299993362</v>
+        <v>207.3311299993363</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.46913676668812</v>
+        <v>84.46913676668825</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.5119141734327</v>
+        <v>188.511914173431</v>
       </c>
       <c r="K20" t="n">
         <v>404.4949414084253</v>
       </c>
       <c r="L20" t="n">
-        <v>554.6164169916384</v>
+        <v>554.6164169916383</v>
       </c>
       <c r="M20" t="n">
         <v>633.891915402673</v>
       </c>
       <c r="N20" t="n">
-        <v>629.3691538066612</v>
+        <v>629.3691538066611</v>
       </c>
       <c r="O20" t="n">
         <v>548.6513665147727</v>
@@ -36139,7 +36139,7 @@
         <v>430.2063155925434</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.0652490908972</v>
+        <v>245.0652490908971</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.646728198319</v>
+        <v>118.6467281983189</v>
       </c>
       <c r="K21" t="n">
-        <v>330.6859977938644</v>
+        <v>330.6859977938643</v>
       </c>
       <c r="L21" t="n">
-        <v>506.6727759346232</v>
+        <v>135.832430631164</v>
       </c>
       <c r="M21" t="n">
-        <v>247.6467888281776</v>
+        <v>643.7674955879185</v>
       </c>
       <c r="N21" t="n">
-        <v>197.3294013509492</v>
+        <v>676.6717756945027</v>
       </c>
       <c r="O21" t="n">
-        <v>551.9359325106527</v>
+        <v>158.0736132339231</v>
       </c>
       <c r="P21" t="n">
-        <v>425.8024295353895</v>
+        <v>315.042013012284</v>
       </c>
       <c r="Q21" t="n">
-        <v>231.4075776878613</v>
+        <v>231.4075776878612</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.46054759610747</v>
+        <v>63.46054759610745</v>
       </c>
       <c r="K22" t="n">
         <v>182.7362162808503</v>
@@ -36297,7 +36297,7 @@
         <v>207.3311299993362</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.46913676668819</v>
+        <v>84.46913676668818</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.511914173431</v>
+        <v>188.511914173432</v>
       </c>
       <c r="K23" t="n">
         <v>404.4949414084253</v>
       </c>
       <c r="L23" t="n">
-        <v>554.6164169916384</v>
+        <v>554.6164169916383</v>
       </c>
       <c r="M23" t="n">
         <v>633.891915402673</v>
       </c>
       <c r="N23" t="n">
-        <v>629.3691538066612</v>
+        <v>629.3691538066611</v>
       </c>
       <c r="O23" t="n">
         <v>548.6513665147727</v>
@@ -36376,7 +36376,7 @@
         <v>430.2063155925434</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.0652490908972</v>
+        <v>245.0652490908971</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.646728198319</v>
+        <v>118.6467281983189</v>
       </c>
       <c r="K24" t="n">
-        <v>66.2207607812858</v>
+        <v>330.6859977938643</v>
       </c>
       <c r="L24" t="n">
-        <v>135.8324306311641</v>
+        <v>506.6727759346232</v>
       </c>
       <c r="M24" t="n">
-        <v>643.7674955879186</v>
+        <v>178.0624318379186</v>
       </c>
       <c r="N24" t="n">
-        <v>676.6717756945027</v>
+        <v>266.9137583412084</v>
       </c>
       <c r="O24" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P24" t="n">
-        <v>185.6449307481325</v>
+        <v>425.8024295353894</v>
       </c>
       <c r="Q24" t="n">
-        <v>231.4075776878613</v>
+        <v>231.4075776878612</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.46054759610747</v>
+        <v>63.46054759610745</v>
       </c>
       <c r="K25" t="n">
         <v>182.7362162808503</v>
@@ -36534,7 +36534,7 @@
         <v>207.3311299993362</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.46913676668819</v>
+        <v>84.46913676668818</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>404.4949414084253</v>
       </c>
       <c r="L26" t="n">
-        <v>554.6164169916384</v>
+        <v>554.6164169916383</v>
       </c>
       <c r="M26" t="n">
         <v>633.891915402673</v>
       </c>
       <c r="N26" t="n">
-        <v>629.3691538066612</v>
+        <v>629.3691538066611</v>
       </c>
       <c r="O26" t="n">
         <v>548.6513665147727</v>
@@ -36613,7 +36613,7 @@
         <v>430.2063155925434</v>
       </c>
       <c r="Q26" t="n">
-        <v>245.0652490908972</v>
+        <v>245.0652490908971</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.646728198319</v>
+        <v>118.6467281983189</v>
       </c>
       <c r="K27" t="n">
-        <v>330.6859977938644</v>
+        <v>330.6859977938643</v>
       </c>
       <c r="L27" t="n">
         <v>506.6727759346232</v>
       </c>
       <c r="M27" t="n">
-        <v>178.0624318379186</v>
+        <v>247.6467888281779</v>
       </c>
       <c r="N27" t="n">
-        <v>266.9137583412082</v>
+        <v>197.3294013509492</v>
       </c>
       <c r="O27" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P27" t="n">
-        <v>425.8024295353895</v>
+        <v>425.8024295353894</v>
       </c>
       <c r="Q27" t="n">
-        <v>231.4075776878613</v>
+        <v>231.4075776878612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.46054759610747</v>
+        <v>63.46054759610743</v>
       </c>
       <c r="K28" t="n">
-        <v>182.7362162808503</v>
+        <v>182.7362162808502</v>
       </c>
       <c r="L28" t="n">
         <v>267.0184185415421</v>
@@ -36771,7 +36771,7 @@
         <v>207.3311299993362</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46913676668819</v>
+        <v>84.46913676668817</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>506.6727759346232</v>
       </c>
       <c r="M30" t="n">
-        <v>178.0624318379186</v>
+        <v>247.6467888281776</v>
       </c>
       <c r="N30" t="n">
-        <v>266.9137583412082</v>
+        <v>197.3294013509492</v>
       </c>
       <c r="O30" t="n">
         <v>551.9359325106527</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.4605475961074</v>
+        <v>63.4605475961075</v>
       </c>
       <c r="K31" t="n">
-        <v>182.7362162808502</v>
+        <v>182.7362162808503</v>
       </c>
       <c r="L31" t="n">
-        <v>267.0184185415421</v>
+        <v>267.0184185415422</v>
       </c>
       <c r="M31" t="n">
         <v>287.5746001591617</v>
       </c>
       <c r="N31" t="n">
-        <v>288.1740145128838</v>
+        <v>288.174014512884</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2505989091321</v>
+        <v>256.2505989091322</v>
       </c>
       <c r="P31" t="n">
-        <v>207.3311299993362</v>
+        <v>207.3311299993363</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.46913676668812</v>
+        <v>84.46913676668822</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>430.2063155925434</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.0652490908972</v>
+        <v>245.0652490908984</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.646728198319</v>
+        <v>36.18894048338865</v>
       </c>
       <c r="K33" t="n">
-        <v>330.6859977938644</v>
+        <v>66.2207607812858</v>
       </c>
       <c r="L33" t="n">
         <v>506.6727759346232</v>
       </c>
       <c r="M33" t="n">
-        <v>178.0624318379186</v>
+        <v>643.7674955879186</v>
       </c>
       <c r="N33" t="n">
-        <v>266.9137583412082</v>
+        <v>676.6717756945027</v>
       </c>
       <c r="O33" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P33" t="n">
-        <v>425.8024295353895</v>
+        <v>107.3396608954523</v>
       </c>
       <c r="Q33" t="n">
-        <v>231.4075776878613</v>
+        <v>21.33028995201218</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.4605475961074</v>
+        <v>63.46054759610745</v>
       </c>
       <c r="K34" t="n">
         <v>182.7362162808502</v>
@@ -37236,16 +37236,16 @@
         <v>287.5746001591617</v>
       </c>
       <c r="N34" t="n">
-        <v>288.1740145128838</v>
+        <v>288.1740145128839</v>
       </c>
       <c r="O34" t="n">
-        <v>256.2505989091321</v>
+        <v>256.2505989091322</v>
       </c>
       <c r="P34" t="n">
         <v>207.3311299993362</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.46913676668812</v>
+        <v>84.46913676668817</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>118.646728198319</v>
       </c>
       <c r="K36" t="n">
-        <v>330.6859977938644</v>
+        <v>66.2207607812858</v>
       </c>
       <c r="L36" t="n">
-        <v>506.6727759346232</v>
+        <v>135.8324306311641</v>
       </c>
       <c r="M36" t="n">
-        <v>178.0624318379186</v>
+        <v>643.7674955879186</v>
       </c>
       <c r="N36" t="n">
-        <v>266.913758341208</v>
+        <v>676.6717756945027</v>
       </c>
       <c r="O36" t="n">
-        <v>551.9359325106527</v>
+        <v>311.778433723396</v>
       </c>
       <c r="P36" t="n">
         <v>425.8024295353895</v>
@@ -37470,7 +37470,7 @@
         <v>273.0427794428448</v>
       </c>
       <c r="M37" t="n">
-        <v>293.5989610604641</v>
+        <v>293.5989610604644</v>
       </c>
       <c r="N37" t="n">
         <v>294.1983754141866</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.646728198319</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>330.6859977938644</v>
@@ -37628,16 +37628,16 @@
         <v>506.6727759346232</v>
       </c>
       <c r="M39" t="n">
-        <v>178.0624318379186</v>
+        <v>643.7674955879186</v>
       </c>
       <c r="N39" t="n">
-        <v>266.913758341208</v>
+        <v>238.3181914294641</v>
       </c>
       <c r="O39" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P39" t="n">
-        <v>425.8024295353895</v>
+        <v>107.3396608954523</v>
       </c>
       <c r="Q39" t="n">
         <v>231.4075776878613</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.48490849741012</v>
+        <v>69.48490849741016</v>
       </c>
       <c r="K40" t="n">
-        <v>188.7605771821529</v>
+        <v>188.760577182153</v>
       </c>
       <c r="L40" t="n">
         <v>273.0427794428448</v>
@@ -37713,13 +37713,13 @@
         <v>294.1983754141866</v>
       </c>
       <c r="O40" t="n">
-        <v>262.2749598104348</v>
+        <v>262.2749598104349</v>
       </c>
       <c r="P40" t="n">
         <v>213.3554909006389</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.49349766799084</v>
+        <v>90.49349766799014</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>554.6164169916384</v>
       </c>
       <c r="M41" t="n">
-        <v>541.6917179539003</v>
+        <v>633.891915402673</v>
       </c>
       <c r="N41" t="n">
         <v>629.3691538066612</v>
@@ -37798,7 +37798,7 @@
         <v>430.2063155925434</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.0652490908972</v>
+        <v>152.8650516421266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.646728198319</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>330.6859977938644</v>
@@ -37865,16 +37865,16 @@
         <v>506.6727759346232</v>
       </c>
       <c r="M42" t="n">
-        <v>247.6467888281776</v>
+        <v>643.7674955879186</v>
       </c>
       <c r="N42" t="n">
-        <v>197.3294013509492</v>
+        <v>238.3181914294641</v>
       </c>
       <c r="O42" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P42" t="n">
-        <v>425.8024295353895</v>
+        <v>107.3396608954523</v>
       </c>
       <c r="Q42" t="n">
         <v>231.4075776878613</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.48490849741009</v>
+        <v>69.48490849741012</v>
       </c>
       <c r="K43" t="n">
         <v>188.7605771821529</v>
@@ -37944,7 +37944,7 @@
         <v>273.0427794428448</v>
       </c>
       <c r="M43" t="n">
-        <v>293.5989610604643</v>
+        <v>293.5989610604644</v>
       </c>
       <c r="N43" t="n">
         <v>294.1983754141866</v>
@@ -37956,7 +37956,7 @@
         <v>213.3554909006389</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.49349766799081</v>
+        <v>90.49349766799084</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>96.31171672465848</v>
+        <v>96.3117167246603</v>
       </c>
       <c r="K44" t="n">
         <v>404.4949414084253</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.646728198319</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>330.6859977938644</v>
@@ -38102,16 +38102,16 @@
         <v>506.6727759346232</v>
       </c>
       <c r="M45" t="n">
-        <v>247.6467888281776</v>
+        <v>643.7674955879186</v>
       </c>
       <c r="N45" t="n">
-        <v>197.3294013509492</v>
+        <v>238.3181914294641</v>
       </c>
       <c r="O45" t="n">
         <v>551.9359325106527</v>
       </c>
       <c r="P45" t="n">
-        <v>425.8024295353895</v>
+        <v>107.3396608954523</v>
       </c>
       <c r="Q45" t="n">
         <v>231.4075776878613</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.48490849741023</v>
+        <v>69.48490849741017</v>
       </c>
       <c r="K46" t="n">
         <v>188.760577182153</v>
       </c>
       <c r="L46" t="n">
-        <v>273.0427794428449</v>
+        <v>273.0427794428448</v>
       </c>
       <c r="M46" t="n">
-        <v>293.5989610604645</v>
+        <v>293.5989610604644</v>
       </c>
       <c r="N46" t="n">
-        <v>294.1983754141867</v>
+        <v>294.1983754141866</v>
       </c>
       <c r="O46" t="n">
-        <v>262.274959810435</v>
+        <v>262.2749598104349</v>
       </c>
       <c r="P46" t="n">
-        <v>213.355490900639</v>
+        <v>213.3554909006389</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.49349766799095</v>
+        <v>90.49349766799089</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
